--- a/Cyber Nexus Pacer/Documentação/Burndown Cyber Nexus.xlsx
+++ b/Cyber Nexus Pacer/Documentação/Burndown Cyber Nexus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3B28B40-ADF3-46FC-AFAD-28CF6403BEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8634131-099B-4643-95F1-1EE5310DDF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
   <si>
     <t>Data de início:</t>
   </si>
@@ -231,7 +231,67 @@
     <t>Implementação da lógica para remover critérios</t>
   </si>
   <si>
+    <t>Redirecionamento ao clicar em "Gerenciar Alunos" e "Gerenciar Grupos" no acesso do professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego </t>
+  </si>
+  <si>
+    <t>Criação do banco de dados online</t>
+  </si>
+  <si>
+    <t>Implementar a funcionalidade onde mostra os critérios atribuidos pelo professor (Àrea do aluno)</t>
+  </si>
+  <si>
+    <t>Implementar lógica para salvar as notas atribuidas as equipes no banco de dados (Pontuação dos Grupos)</t>
+  </si>
+  <si>
+    <t>Implementar lógica para adicionar as sprints e salvar qual sprints foi salva e suas datas no banco de dados (Criterios E Sprint)</t>
+  </si>
+  <si>
+    <t>Mesmo após o sistema reiniciado os criterios devem permanecer na janela de histórico (Criterios E Sprint)</t>
+  </si>
+  <si>
+    <t>Lógica para Adiconar e Excluir Sprints</t>
+  </si>
+  <si>
+    <t>Criar dropbox para selecionar os alunos da equipe (Area do Aluno)</t>
+  </si>
+  <si>
+    <t>Verificar a quantidade de sprints para mostrar os botões com as determinadas sprints na tela (Area do Aluno)</t>
+  </si>
+  <si>
+    <t>Implementação da tela dinamica apresentando todos os grupos de acordo com o arquivo que foi importado e salvo no banco de dados (Pontuação dos Grupos)</t>
+  </si>
+  <si>
+    <t>Lógica para salvar datas das sprits adionadas na base de dados</t>
+  </si>
+  <si>
+    <t>implementação de exclusão de sprint</t>
+  </si>
+  <si>
+    <t>Tiago Santos  e Diego</t>
+  </si>
+  <si>
+    <t>Implementação das tabelas do banco de dados online</t>
+  </si>
+  <si>
+    <t>Atualização de documentação sobre o projeto</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Realizar a lógica para sistema de votação a partir dos checkbox selecionados e ir decrementando da nota total (Àrea do aluno)</t>
+  </si>
+  <si>
+    <t>Lógica para remover critérios da sprint</t>
+  </si>
+  <si>
     <t>Criação Burndown Sprint 4</t>
+  </si>
+  <si>
+    <t>16/5/2023</t>
   </si>
   <si>
     <t>Jaque</t>
@@ -247,15 +307,6 @@
   </si>
   <si>
     <t>Apresentação</t>
-  </si>
-  <si>
-    <t>Organizar o site e colocar itens novos</t>
-  </si>
-  <si>
-    <t>Fazer a página de avaliação</t>
-  </si>
-  <si>
-    <t>16/5/2023</t>
   </si>
   <si>
     <t>Edição de videos youtube</t>
@@ -314,7 +365,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -412,6 +463,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1192,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1391,18 +1448,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1444,6 +1489,39 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1550,14 +1628,14 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,45 +1647,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1632,6 +1695,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2975,64 +3044,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>80.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>72.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>29.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>21.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -3140,67 +3209,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>11</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4357,7 +4426,7 @@
       </c>
       <c r="F2" s="51">
         <f ca="1">TODAY()</f>
-        <v>45585</v>
+        <v>45608</v>
       </c>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
@@ -4486,7 +4555,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="65">
-        <f t="shared" ref="F7:F26" ca="1" si="2">IF(C8&lt;=$F$2,F7-E8,)</f>
+        <f t="shared" ref="F8:F26" ca="1" si="2">IF(C8&lt;=$F$2,F7-E8,)</f>
         <v>72</v>
       </c>
       <c r="G8" s="52"/>
@@ -4978,30 +5047,30 @@
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="108"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="115"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1">
-      <c r="B29" s="109" t="s">
+      <c r="B29" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="111"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
       <c r="I29" s="40" t="s">
         <v>10</v>
       </c>
@@ -5017,15 +5086,15 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
       <c r="I30" s="42">
         <v>45544</v>
       </c>
@@ -5042,15 +5111,15 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
       <c r="I31" s="42">
         <v>45560</v>
       </c>
@@ -5067,15 +5136,15 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
       <c r="I32" s="42">
         <v>45546</v>
       </c>
@@ -5092,15 +5161,15 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="99"/>
       <c r="I33" s="42">
         <v>45544</v>
       </c>
@@ -5117,15 +5186,15 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="99"/>
       <c r="I34" s="42">
         <v>45544</v>
       </c>
@@ -5142,15 +5211,15 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="99"/>
       <c r="I35" s="42">
         <v>45549</v>
       </c>
@@ -5167,15 +5236,15 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="92"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
       <c r="I36" s="42">
         <v>45547</v>
       </c>
@@ -5192,15 +5261,15 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="92"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
       <c r="I37" s="42">
         <v>45551</v>
       </c>
@@ -5217,15 +5286,15 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="92"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="99"/>
       <c r="I38" s="42">
         <v>45544</v>
       </c>
@@ -5242,15 +5311,15 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="92"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="99"/>
       <c r="I39" s="42">
         <v>45551</v>
       </c>
@@ -5267,15 +5336,15 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="92"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="99"/>
       <c r="I40" s="42">
         <v>45551</v>
       </c>
@@ -5292,15 +5361,15 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="92"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="99"/>
       <c r="I41" s="42">
         <v>45551</v>
       </c>
@@ -5317,15 +5386,15 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="99"/>
       <c r="I42" s="42">
         <v>45554</v>
       </c>
@@ -5342,15 +5411,15 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="92"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="99"/>
       <c r="I43" s="42">
         <v>45554</v>
       </c>
@@ -5367,15 +5436,15 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="92"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="99"/>
       <c r="I44" s="42">
         <v>45554</v>
       </c>
@@ -5392,15 +5461,15 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="92"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="99"/>
       <c r="I45" s="42">
         <v>45554</v>
       </c>
@@ -5417,15 +5486,15 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="92"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="99"/>
       <c r="I46" s="42">
         <v>45554</v>
       </c>
@@ -5442,15 +5511,15 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="92"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="99"/>
       <c r="I47" s="42">
         <v>45560</v>
       </c>
@@ -5467,13 +5536,13 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B48" s="90"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="92"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="99"/>
       <c r="I48" s="42"/>
       <c r="J48" s="47"/>
       <c r="K48" s="44"/>
@@ -5482,13 +5551,13 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B49" s="99"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="101"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="108"/>
       <c r="I49" s="46"/>
       <c r="J49" s="47"/>
       <c r="K49" s="44"/>
@@ -5497,13 +5566,13 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B50" s="99"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="101"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="108"/>
       <c r="I50" s="46"/>
       <c r="J50" s="47"/>
       <c r="K50" s="44"/>
@@ -5512,13 +5581,13 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B51" s="96"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="98"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="105"/>
       <c r="I51" s="46"/>
       <c r="J51" s="47"/>
       <c r="K51" s="44"/>
@@ -5527,13 +5596,13 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B52" s="93"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="95"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="102"/>
       <c r="I52" s="37"/>
       <c r="J52" s="38"/>
       <c r="K52" s="35"/>
@@ -5542,13 +5611,13 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B53" s="93"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="95"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="102"/>
       <c r="I53" s="37"/>
       <c r="J53" s="38"/>
       <c r="K53" s="35"/>
@@ -5557,13 +5626,13 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="95"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="102"/>
       <c r="I54" s="37"/>
       <c r="J54" s="38"/>
       <c r="K54" s="35"/>
@@ -5572,13 +5641,13 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B55" s="93"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="95"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="102"/>
       <c r="I55" s="37"/>
       <c r="J55" s="38"/>
       <c r="K55" s="35"/>
@@ -5587,13 +5656,13 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B56" s="93"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="95"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="102"/>
       <c r="I56" s="37"/>
       <c r="J56" s="38"/>
       <c r="K56" s="35"/>
@@ -5602,13 +5671,13 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B57" s="93"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="95"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="102"/>
       <c r="I57" s="37"/>
       <c r="J57" s="38"/>
       <c r="K57" s="35"/>
@@ -5617,13 +5686,13 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B58" s="93"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="95"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="102"/>
       <c r="I58" s="37"/>
       <c r="J58" s="38"/>
       <c r="K58" s="35"/>
@@ -5632,13 +5701,13 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="95"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="102"/>
       <c r="I59" s="37"/>
       <c r="J59" s="38"/>
       <c r="K59" s="35"/>
@@ -5647,13 +5716,13 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B60" s="93"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="95"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="102"/>
       <c r="I60" s="37"/>
       <c r="J60" s="38"/>
       <c r="K60" s="35"/>
@@ -5662,13 +5731,13 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="95"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="102"/>
       <c r="I61" s="32"/>
       <c r="J61" s="34"/>
       <c r="K61" s="11"/>
@@ -5677,13 +5746,13 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B62" s="93"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="95"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="102"/>
       <c r="I62" s="32"/>
       <c r="J62" s="34"/>
       <c r="K62" s="11"/>
@@ -5692,13 +5761,13 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B63" s="93"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="95"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="102"/>
       <c r="I63" s="32"/>
       <c r="J63" s="34"/>
       <c r="K63" s="11"/>
@@ -5707,13 +5776,13 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B64" s="93"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="95"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="102"/>
       <c r="I64" s="32"/>
       <c r="J64" s="34"/>
       <c r="K64" s="11"/>
@@ -5722,13 +5791,13 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B65" s="93"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="95"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="102"/>
       <c r="I65" s="32"/>
       <c r="J65" s="34"/>
       <c r="K65" s="11"/>
@@ -5737,13 +5806,13 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B66" s="93"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="95"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="102"/>
       <c r="I66" s="32"/>
       <c r="J66" s="34"/>
       <c r="K66" s="11"/>
@@ -5752,13 +5821,13 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="95"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="102"/>
       <c r="I67" s="32"/>
       <c r="J67" s="34"/>
       <c r="K67" s="11"/>
@@ -5767,13 +5836,13 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B68" s="93"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="95"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="102"/>
       <c r="I68" s="32"/>
       <c r="J68" s="34"/>
       <c r="K68" s="11"/>
@@ -5782,13 +5851,13 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B69" s="93"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="95"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="102"/>
       <c r="I69" s="32"/>
       <c r="J69" s="34"/>
       <c r="K69" s="11"/>
@@ -5797,13 +5866,13 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B70" s="93"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="95"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="102"/>
       <c r="I70" s="32"/>
       <c r="J70" s="34"/>
       <c r="K70" s="11"/>
@@ -5812,13 +5881,13 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B71" s="93"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="95"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="102"/>
       <c r="I71" s="32"/>
       <c r="J71" s="23"/>
       <c r="K71" s="11"/>
@@ -5827,13 +5896,13 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B72" s="93"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="95"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="102"/>
       <c r="I72" s="32"/>
       <c r="J72" s="23"/>
       <c r="K72" s="11"/>
@@ -5842,13 +5911,13 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B73" s="93"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="95"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="102"/>
       <c r="I73" s="32"/>
       <c r="J73" s="23"/>
       <c r="K73" s="11"/>
@@ -5857,13 +5926,13 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B74" s="93"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="95"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="102"/>
       <c r="I74" s="32"/>
       <c r="J74" s="23"/>
       <c r="K74" s="11"/>
@@ -5887,13 +5956,13 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B76" s="153"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="154"/>
-      <c r="G76" s="154"/>
-      <c r="H76" s="155"/>
+      <c r="B76" s="157"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="159"/>
       <c r="I76" s="6"/>
       <c r="J76" s="21"/>
       <c r="K76" s="9"/>
@@ -5902,13 +5971,13 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B77" s="114"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
-      <c r="G77" s="115"/>
-      <c r="H77" s="116"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="122"/>
+      <c r="H77" s="123"/>
       <c r="I77" s="25"/>
       <c r="J77" s="26"/>
       <c r="K77" s="27"/>
@@ -5917,13 +5986,13 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B78" s="156"/>
-      <c r="C78" s="157"/>
-      <c r="D78" s="157"/>
-      <c r="E78" s="157"/>
-      <c r="F78" s="157"/>
-      <c r="G78" s="157"/>
-      <c r="H78" s="158"/>
+      <c r="B78" s="160"/>
+      <c r="C78" s="161"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="161"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="161"/>
+      <c r="H78" s="162"/>
       <c r="I78" s="16"/>
       <c r="J78" s="23"/>
       <c r="K78" s="11"/>
@@ -5931,13 +6000,13 @@
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B79" s="153"/>
-      <c r="C79" s="154"/>
-      <c r="D79" s="154"/>
-      <c r="E79" s="154"/>
-      <c r="F79" s="154"/>
-      <c r="G79" s="154"/>
-      <c r="H79" s="155"/>
+      <c r="B79" s="157"/>
+      <c r="C79" s="158"/>
+      <c r="D79" s="158"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="158"/>
+      <c r="G79" s="158"/>
+      <c r="H79" s="159"/>
       <c r="I79" s="6"/>
       <c r="J79" s="4"/>
       <c r="K79" s="9"/>
@@ -5945,13 +6014,13 @@
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B80" s="159"/>
-      <c r="C80" s="160"/>
-      <c r="D80" s="160"/>
-      <c r="E80" s="160"/>
-      <c r="F80" s="160"/>
-      <c r="G80" s="160"/>
-      <c r="H80" s="161"/>
+      <c r="B80" s="163"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="164"/>
+      <c r="F80" s="164"/>
+      <c r="G80" s="164"/>
+      <c r="H80" s="165"/>
       <c r="I80" s="6"/>
       <c r="J80" s="4"/>
       <c r="K80" s="9"/>
@@ -5959,13 +6028,13 @@
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B81" s="162"/>
-      <c r="C81" s="163"/>
-      <c r="D81" s="163"/>
-      <c r="E81" s="163"/>
-      <c r="F81" s="163"/>
-      <c r="G81" s="163"/>
-      <c r="H81" s="163"/>
+      <c r="B81" s="166"/>
+      <c r="C81" s="167"/>
+      <c r="D81" s="167"/>
+      <c r="E81" s="167"/>
+      <c r="F81" s="167"/>
+      <c r="G81" s="167"/>
+      <c r="H81" s="167"/>
       <c r="I81" s="7"/>
       <c r="J81" s="4"/>
       <c r="K81" s="9"/>
@@ -5973,13 +6042,13 @@
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B82" s="102"/>
-      <c r="C82" s="103"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="103"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="110"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="110"/>
+      <c r="H82" s="110"/>
       <c r="I82" s="22"/>
       <c r="J82" s="4"/>
       <c r="K82" s="9"/>
@@ -5987,13 +6056,13 @@
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B83" s="104"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="112"/>
       <c r="I83" s="7"/>
       <c r="J83" s="4"/>
       <c r="K83" s="9"/>
@@ -6001,13 +6070,13 @@
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B84" s="156"/>
-      <c r="C84" s="157"/>
-      <c r="D84" s="157"/>
-      <c r="E84" s="157"/>
-      <c r="F84" s="157"/>
-      <c r="G84" s="157"/>
-      <c r="H84" s="158"/>
+      <c r="B84" s="160"/>
+      <c r="C84" s="161"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="161"/>
+      <c r="F84" s="161"/>
+      <c r="G84" s="161"/>
+      <c r="H84" s="162"/>
       <c r="I84" s="8"/>
       <c r="J84" s="4"/>
       <c r="K84" s="9"/>
@@ -6015,13 +6084,13 @@
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B85" s="153"/>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="154"/>
-      <c r="H85" s="155"/>
+      <c r="B85" s="157"/>
+      <c r="C85" s="158"/>
+      <c r="D85" s="158"/>
+      <c r="E85" s="158"/>
+      <c r="F85" s="158"/>
+      <c r="G85" s="158"/>
+      <c r="H85" s="159"/>
       <c r="I85" s="8"/>
       <c r="J85" s="4"/>
       <c r="K85" s="9"/>
@@ -6029,13 +6098,13 @@
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B86" s="153"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="155"/>
+      <c r="B86" s="157"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="158"/>
+      <c r="E86" s="158"/>
+      <c r="F86" s="158"/>
+      <c r="G86" s="158"/>
+      <c r="H86" s="159"/>
       <c r="I86" s="8"/>
       <c r="J86" s="4"/>
       <c r="K86" s="9"/>
@@ -6043,13 +6112,13 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B87" s="153"/>
-      <c r="C87" s="154"/>
-      <c r="D87" s="154"/>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
-      <c r="H87" s="155"/>
+      <c r="B87" s="157"/>
+      <c r="C87" s="158"/>
+      <c r="D87" s="158"/>
+      <c r="E87" s="158"/>
+      <c r="F87" s="158"/>
+      <c r="G87" s="158"/>
+      <c r="H87" s="159"/>
       <c r="I87" s="8"/>
       <c r="J87" s="4"/>
       <c r="K87" s="9"/>
@@ -6057,13 +6126,13 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B88" s="153"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="154"/>
-      <c r="F88" s="154"/>
-      <c r="G88" s="154"/>
-      <c r="H88" s="155"/>
+      <c r="B88" s="157"/>
+      <c r="C88" s="158"/>
+      <c r="D88" s="158"/>
+      <c r="E88" s="158"/>
+      <c r="F88" s="158"/>
+      <c r="G88" s="158"/>
+      <c r="H88" s="159"/>
       <c r="I88" s="8"/>
       <c r="J88" s="4"/>
       <c r="K88" s="9"/>
@@ -6071,13 +6140,13 @@
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B89" s="153"/>
-      <c r="C89" s="154"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="154"/>
-      <c r="F89" s="154"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="155"/>
+      <c r="B89" s="157"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="158"/>
+      <c r="F89" s="158"/>
+      <c r="G89" s="158"/>
+      <c r="H89" s="159"/>
       <c r="I89" s="8"/>
       <c r="J89" s="4"/>
       <c r="K89" s="9"/>
@@ -6085,13 +6154,13 @@
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B90" s="153"/>
-      <c r="C90" s="154"/>
-      <c r="D90" s="154"/>
-      <c r="E90" s="154"/>
-      <c r="F90" s="154"/>
-      <c r="G90" s="154"/>
-      <c r="H90" s="155"/>
+      <c r="B90" s="157"/>
+      <c r="C90" s="158"/>
+      <c r="D90" s="158"/>
+      <c r="E90" s="158"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="158"/>
+      <c r="H90" s="159"/>
       <c r="I90" s="8"/>
       <c r="J90" s="4"/>
       <c r="K90" s="9"/>
@@ -6099,13 +6168,13 @@
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B91" s="153"/>
-      <c r="C91" s="154"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="154"/>
-      <c r="F91" s="154"/>
-      <c r="G91" s="154"/>
-      <c r="H91" s="155"/>
+      <c r="B91" s="157"/>
+      <c r="C91" s="158"/>
+      <c r="D91" s="158"/>
+      <c r="E91" s="158"/>
+      <c r="F91" s="158"/>
+      <c r="G91" s="158"/>
+      <c r="H91" s="159"/>
       <c r="I91" s="8"/>
       <c r="J91" s="4"/>
       <c r="K91" s="9"/>
@@ -6113,13 +6182,13 @@
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B92" s="153"/>
-      <c r="C92" s="154"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="154"/>
-      <c r="F92" s="154"/>
-      <c r="G92" s="154"/>
-      <c r="H92" s="155"/>
+      <c r="B92" s="157"/>
+      <c r="C92" s="158"/>
+      <c r="D92" s="158"/>
+      <c r="E92" s="158"/>
+      <c r="F92" s="158"/>
+      <c r="G92" s="158"/>
+      <c r="H92" s="159"/>
       <c r="I92" s="8"/>
       <c r="J92" s="4"/>
       <c r="K92" s="9"/>
@@ -6127,13 +6196,13 @@
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B93" s="153"/>
-      <c r="C93" s="154"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="154"/>
-      <c r="H93" s="155"/>
+      <c r="B93" s="157"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="158"/>
+      <c r="G93" s="158"/>
+      <c r="H93" s="159"/>
       <c r="I93" s="8"/>
       <c r="J93" s="4"/>
       <c r="K93" s="9"/>
@@ -6141,13 +6210,13 @@
       <c r="M93" s="2"/>
     </row>
     <row r="94" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B94" s="153"/>
-      <c r="C94" s="154"/>
-      <c r="D94" s="154"/>
-      <c r="E94" s="154"/>
-      <c r="F94" s="154"/>
-      <c r="G94" s="154"/>
-      <c r="H94" s="155"/>
+      <c r="B94" s="157"/>
+      <c r="C94" s="158"/>
+      <c r="D94" s="158"/>
+      <c r="E94" s="158"/>
+      <c r="F94" s="158"/>
+      <c r="G94" s="158"/>
+      <c r="H94" s="159"/>
       <c r="I94" s="8"/>
       <c r="J94" s="4"/>
       <c r="K94" s="9"/>
@@ -6155,13 +6224,13 @@
       <c r="M94" s="2"/>
     </row>
     <row r="95" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B95" s="153"/>
-      <c r="C95" s="154"/>
-      <c r="D95" s="154"/>
-      <c r="E95" s="154"/>
-      <c r="F95" s="154"/>
-      <c r="G95" s="154"/>
-      <c r="H95" s="155"/>
+      <c r="B95" s="157"/>
+      <c r="C95" s="158"/>
+      <c r="D95" s="158"/>
+      <c r="E95" s="158"/>
+      <c r="F95" s="158"/>
+      <c r="G95" s="158"/>
+      <c r="H95" s="159"/>
       <c r="I95" s="8"/>
       <c r="J95" s="4"/>
       <c r="K95" s="9"/>
@@ -6169,13 +6238,13 @@
       <c r="M95" s="2"/>
     </row>
     <row r="96" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B96" s="153"/>
-      <c r="C96" s="154"/>
-      <c r="D96" s="154"/>
-      <c r="E96" s="154"/>
-      <c r="F96" s="154"/>
-      <c r="G96" s="154"/>
-      <c r="H96" s="155"/>
+      <c r="B96" s="157"/>
+      <c r="C96" s="158"/>
+      <c r="D96" s="158"/>
+      <c r="E96" s="158"/>
+      <c r="F96" s="158"/>
+      <c r="G96" s="158"/>
+      <c r="H96" s="159"/>
       <c r="I96" s="8"/>
       <c r="J96" s="4"/>
       <c r="K96" s="9"/>
@@ -6183,13 +6252,13 @@
       <c r="M96" s="2"/>
     </row>
     <row r="97" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B97" s="153"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="154"/>
-      <c r="H97" s="155"/>
+      <c r="B97" s="157"/>
+      <c r="C97" s="158"/>
+      <c r="D97" s="158"/>
+      <c r="E97" s="158"/>
+      <c r="F97" s="158"/>
+      <c r="G97" s="158"/>
+      <c r="H97" s="159"/>
       <c r="I97" s="8"/>
       <c r="J97" s="4"/>
       <c r="K97" s="9"/>
@@ -6197,13 +6266,13 @@
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="2:13" ht="13.15">
-      <c r="B98" s="153"/>
-      <c r="C98" s="154"/>
-      <c r="D98" s="154"/>
-      <c r="E98" s="154"/>
-      <c r="F98" s="154"/>
-      <c r="G98" s="154"/>
-      <c r="H98" s="155"/>
+      <c r="B98" s="157"/>
+      <c r="C98" s="158"/>
+      <c r="D98" s="158"/>
+      <c r="E98" s="158"/>
+      <c r="F98" s="158"/>
+      <c r="G98" s="158"/>
+      <c r="H98" s="159"/>
       <c r="I98" s="8"/>
       <c r="J98" s="4"/>
       <c r="K98" s="9"/>
@@ -6211,13 +6280,13 @@
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="2:13" ht="13.15">
-      <c r="B99" s="153"/>
-      <c r="C99" s="154"/>
-      <c r="D99" s="154"/>
-      <c r="E99" s="154"/>
-      <c r="F99" s="154"/>
-      <c r="G99" s="154"/>
-      <c r="H99" s="155"/>
+      <c r="B99" s="157"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="158"/>
+      <c r="E99" s="158"/>
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="159"/>
       <c r="I99" s="8"/>
       <c r="J99" s="4"/>
       <c r="K99" s="9"/>
@@ -6225,13 +6294,13 @@
       <c r="M99" s="2"/>
     </row>
     <row r="100" spans="2:13" ht="13.15">
-      <c r="B100" s="153"/>
-      <c r="C100" s="154"/>
-      <c r="D100" s="154"/>
-      <c r="E100" s="154"/>
-      <c r="F100" s="154"/>
-      <c r="G100" s="154"/>
-      <c r="H100" s="155"/>
+      <c r="B100" s="157"/>
+      <c r="C100" s="158"/>
+      <c r="D100" s="158"/>
+      <c r="E100" s="158"/>
+      <c r="F100" s="158"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="159"/>
       <c r="I100" s="8"/>
       <c r="J100" s="4"/>
       <c r="K100" s="9"/>
@@ -6239,13 +6308,13 @@
       <c r="M100" s="2"/>
     </row>
     <row r="101" spans="2:13" ht="13.15">
-      <c r="B101" s="153"/>
-      <c r="C101" s="154"/>
-      <c r="D101" s="154"/>
-      <c r="E101" s="154"/>
-      <c r="F101" s="154"/>
-      <c r="G101" s="154"/>
-      <c r="H101" s="155"/>
+      <c r="B101" s="157"/>
+      <c r="C101" s="158"/>
+      <c r="D101" s="158"/>
+      <c r="E101" s="158"/>
+      <c r="F101" s="158"/>
+      <c r="G101" s="158"/>
+      <c r="H101" s="159"/>
       <c r="I101" s="8"/>
       <c r="J101" s="4"/>
       <c r="K101" s="9"/>
@@ -6253,13 +6322,13 @@
       <c r="M101" s="2"/>
     </row>
     <row r="102" spans="2:13" ht="13.15">
-      <c r="B102" s="153"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="154"/>
-      <c r="E102" s="154"/>
-      <c r="F102" s="154"/>
-      <c r="G102" s="154"/>
-      <c r="H102" s="155"/>
+      <c r="B102" s="157"/>
+      <c r="C102" s="158"/>
+      <c r="D102" s="158"/>
+      <c r="E102" s="158"/>
+      <c r="F102" s="158"/>
+      <c r="G102" s="158"/>
+      <c r="H102" s="159"/>
       <c r="I102" s="8"/>
       <c r="J102" s="4"/>
       <c r="K102" s="9"/>
@@ -6267,13 +6336,13 @@
       <c r="M102" s="2"/>
     </row>
     <row r="103" spans="2:13" ht="13.15">
-      <c r="B103" s="153"/>
-      <c r="C103" s="154"/>
-      <c r="D103" s="154"/>
-      <c r="E103" s="154"/>
-      <c r="F103" s="154"/>
-      <c r="G103" s="154"/>
-      <c r="H103" s="155"/>
+      <c r="B103" s="157"/>
+      <c r="C103" s="158"/>
+      <c r="D103" s="158"/>
+      <c r="E103" s="158"/>
+      <c r="F103" s="158"/>
+      <c r="G103" s="158"/>
+      <c r="H103" s="159"/>
       <c r="I103" s="8"/>
       <c r="J103" s="4"/>
       <c r="K103" s="9"/>
@@ -6281,13 +6350,13 @@
       <c r="M103" s="2"/>
     </row>
     <row r="104" spans="2:13" ht="13.15">
-      <c r="B104" s="153"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="155"/>
+      <c r="B104" s="157"/>
+      <c r="C104" s="158"/>
+      <c r="D104" s="158"/>
+      <c r="E104" s="158"/>
+      <c r="F104" s="158"/>
+      <c r="G104" s="158"/>
+      <c r="H104" s="159"/>
       <c r="I104" s="8"/>
       <c r="J104" s="4"/>
       <c r="K104" s="9"/>
@@ -6295,13 +6364,13 @@
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="2:13" ht="13.15">
-      <c r="B105" s="153"/>
-      <c r="C105" s="154"/>
-      <c r="D105" s="154"/>
-      <c r="E105" s="154"/>
-      <c r="F105" s="154"/>
-      <c r="G105" s="154"/>
-      <c r="H105" s="155"/>
+      <c r="B105" s="157"/>
+      <c r="C105" s="158"/>
+      <c r="D105" s="158"/>
+      <c r="E105" s="158"/>
+      <c r="F105" s="158"/>
+      <c r="G105" s="158"/>
+      <c r="H105" s="159"/>
       <c r="I105" s="8"/>
       <c r="J105" s="4"/>
       <c r="K105" s="9"/>
@@ -6309,13 +6378,13 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="13.15">
-      <c r="B106" s="153"/>
-      <c r="C106" s="154"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="154"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="155"/>
+      <c r="B106" s="157"/>
+      <c r="C106" s="158"/>
+      <c r="D106" s="158"/>
+      <c r="E106" s="158"/>
+      <c r="F106" s="158"/>
+      <c r="G106" s="158"/>
+      <c r="H106" s="159"/>
       <c r="I106" s="8"/>
       <c r="J106" s="4"/>
       <c r="K106" s="9"/>
@@ -6323,13 +6392,13 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="13.15">
-      <c r="B107" s="153"/>
-      <c r="C107" s="154"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="154"/>
-      <c r="F107" s="154"/>
-      <c r="G107" s="154"/>
-      <c r="H107" s="155"/>
+      <c r="B107" s="157"/>
+      <c r="C107" s="158"/>
+      <c r="D107" s="158"/>
+      <c r="E107" s="158"/>
+      <c r="F107" s="158"/>
+      <c r="G107" s="158"/>
+      <c r="H107" s="159"/>
       <c r="I107" s="8"/>
       <c r="J107" s="4"/>
       <c r="K107" s="9"/>
@@ -6337,13 +6406,13 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="13.15">
-      <c r="B108" s="153"/>
-      <c r="C108" s="154"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="154"/>
-      <c r="F108" s="154"/>
-      <c r="G108" s="154"/>
-      <c r="H108" s="155"/>
+      <c r="B108" s="157"/>
+      <c r="C108" s="158"/>
+      <c r="D108" s="158"/>
+      <c r="E108" s="158"/>
+      <c r="F108" s="158"/>
+      <c r="G108" s="158"/>
+      <c r="H108" s="159"/>
       <c r="I108" s="8"/>
       <c r="J108" s="4"/>
       <c r="K108" s="9"/>
@@ -6351,13 +6420,13 @@
       <c r="M108" s="2"/>
     </row>
     <row r="109" spans="2:13" ht="13.15">
-      <c r="B109" s="153"/>
-      <c r="C109" s="154"/>
-      <c r="D109" s="154"/>
-      <c r="E109" s="154"/>
-      <c r="F109" s="154"/>
-      <c r="G109" s="154"/>
-      <c r="H109" s="155"/>
+      <c r="B109" s="157"/>
+      <c r="C109" s="158"/>
+      <c r="D109" s="158"/>
+      <c r="E109" s="158"/>
+      <c r="F109" s="158"/>
+      <c r="G109" s="158"/>
+      <c r="H109" s="159"/>
       <c r="I109" s="8"/>
       <c r="J109" s="4"/>
       <c r="K109" s="9"/>
@@ -6365,13 +6434,13 @@
       <c r="M109" s="2"/>
     </row>
     <row r="110" spans="2:13" ht="13.15">
-      <c r="B110" s="153"/>
-      <c r="C110" s="154"/>
-      <c r="D110" s="154"/>
-      <c r="E110" s="154"/>
-      <c r="F110" s="154"/>
-      <c r="G110" s="154"/>
-      <c r="H110" s="155"/>
+      <c r="B110" s="157"/>
+      <c r="C110" s="158"/>
+      <c r="D110" s="158"/>
+      <c r="E110" s="158"/>
+      <c r="F110" s="158"/>
+      <c r="G110" s="158"/>
+      <c r="H110" s="159"/>
       <c r="I110" s="8"/>
       <c r="J110" s="3"/>
       <c r="K110" s="9"/>
@@ -6379,13 +6448,13 @@
       <c r="M110" s="2"/>
     </row>
     <row r="111" spans="2:13" ht="13.15">
-      <c r="B111" s="153"/>
-      <c r="C111" s="154"/>
-      <c r="D111" s="154"/>
-      <c r="E111" s="154"/>
-      <c r="F111" s="154"/>
-      <c r="G111" s="154"/>
-      <c r="H111" s="155"/>
+      <c r="B111" s="157"/>
+      <c r="C111" s="158"/>
+      <c r="D111" s="158"/>
+      <c r="E111" s="158"/>
+      <c r="F111" s="158"/>
+      <c r="G111" s="158"/>
+      <c r="H111" s="159"/>
       <c r="I111" s="8"/>
       <c r="J111" s="3"/>
       <c r="K111" s="9"/>
@@ -6393,13 +6462,13 @@
       <c r="M111" s="2"/>
     </row>
     <row r="112" spans="2:13" ht="13.15">
-      <c r="B112" s="153"/>
-      <c r="C112" s="154"/>
-      <c r="D112" s="154"/>
-      <c r="E112" s="154"/>
-      <c r="F112" s="154"/>
-      <c r="G112" s="154"/>
-      <c r="H112" s="155"/>
+      <c r="B112" s="157"/>
+      <c r="C112" s="158"/>
+      <c r="D112" s="158"/>
+      <c r="E112" s="158"/>
+      <c r="F112" s="158"/>
+      <c r="G112" s="158"/>
+      <c r="H112" s="159"/>
       <c r="I112" s="8"/>
       <c r="J112" s="3"/>
       <c r="K112" s="9"/>
@@ -6407,13 +6476,13 @@
       <c r="M112" s="2"/>
     </row>
     <row r="113" spans="2:13" ht="13.15">
-      <c r="B113" s="153"/>
-      <c r="C113" s="154"/>
-      <c r="D113" s="154"/>
-      <c r="E113" s="154"/>
-      <c r="F113" s="154"/>
-      <c r="G113" s="154"/>
-      <c r="H113" s="155"/>
+      <c r="B113" s="157"/>
+      <c r="C113" s="158"/>
+      <c r="D113" s="158"/>
+      <c r="E113" s="158"/>
+      <c r="F113" s="158"/>
+      <c r="G113" s="158"/>
+      <c r="H113" s="159"/>
       <c r="I113" s="8"/>
       <c r="J113" s="3"/>
       <c r="K113" s="9"/>
@@ -6421,13 +6490,13 @@
       <c r="M113" s="2"/>
     </row>
     <row r="114" spans="2:13" ht="13.9" thickBot="1">
-      <c r="B114" s="164"/>
-      <c r="C114" s="165"/>
-      <c r="D114" s="165"/>
-      <c r="E114" s="165"/>
-      <c r="F114" s="165"/>
-      <c r="G114" s="165"/>
-      <c r="H114" s="166"/>
+      <c r="B114" s="168"/>
+      <c r="C114" s="169"/>
+      <c r="D114" s="169"/>
+      <c r="E114" s="169"/>
+      <c r="F114" s="169"/>
+      <c r="G114" s="169"/>
+      <c r="H114" s="170"/>
       <c r="I114" s="12"/>
       <c r="J114" s="18"/>
       <c r="K114" s="13"/>
@@ -19702,8 +19771,8 @@
   </sheetPr>
   <dimension ref="B2:O1052"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -19713,7 +19782,7 @@
     <col min="3" max="3" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625"/>
     <col min="9" max="9" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -19734,7 +19803,7 @@
       </c>
       <c r="F2" s="51">
         <f ca="1">TODAY()</f>
-        <v>45585</v>
+        <v>45608</v>
       </c>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
@@ -19863,7 +19932,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="65">
-        <f t="shared" ref="F7:F26" ca="1" si="2">IF(C8&lt;=$F$2,F7-E8,)</f>
+        <f t="shared" ref="F8:F26" ca="1" si="2">IF(C8&lt;=$F$2,F7-E8,)</f>
         <v>77</v>
       </c>
       <c r="G8" s="52"/>
@@ -20355,30 +20424,30 @@
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="108"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="115"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1">
-      <c r="B29" s="109" t="s">
+      <c r="B29" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="111"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
       <c r="I29" s="40" t="s">
         <v>10</v>
       </c>
@@ -20394,16 +20463,16 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="85">
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="81">
         <v>45583</v>
       </c>
       <c r="J30" s="43" t="s">
@@ -20419,16 +20488,16 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="86">
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="82">
         <v>45572</v>
       </c>
       <c r="J31" s="43" t="s">
@@ -20444,16 +20513,16 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="86">
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="82">
         <v>45567</v>
       </c>
       <c r="J32" s="43" t="s">
@@ -20469,16 +20538,16 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="86">
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="82">
         <v>45573</v>
       </c>
       <c r="J33" s="43" t="s">
@@ -20494,16 +20563,16 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="86">
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="82">
         <v>45575</v>
       </c>
       <c r="J34" s="43" t="s">
@@ -20519,16 +20588,16 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="87">
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="83">
         <v>45567</v>
       </c>
       <c r="J35" s="43" t="s">
@@ -20544,16 +20613,16 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="88">
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="84">
         <v>45579</v>
       </c>
       <c r="J36" s="47" t="s">
@@ -20569,16 +20638,16 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="88">
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="84">
         <v>45569</v>
       </c>
       <c r="J37" s="47" t="s">
@@ -20598,16 +20667,16 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="88">
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="84">
         <v>45576</v>
       </c>
       <c r="J38" s="47" t="s">
@@ -20623,16 +20692,16 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="88">
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="84">
         <v>45570</v>
       </c>
       <c r="J39" s="47" t="s">
@@ -20648,16 +20717,16 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B40" s="120" t="s">
+      <c r="B40" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="89">
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="85">
         <v>45582</v>
       </c>
       <c r="J40" s="47" t="s">
@@ -20673,16 +20742,16 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="88">
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="84">
         <v>45582</v>
       </c>
       <c r="J41" s="47" t="s">
@@ -20698,16 +20767,16 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="88">
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="84">
         <v>45581</v>
       </c>
       <c r="J42" s="47" t="s">
@@ -20723,16 +20792,16 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="88">
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="84">
         <v>45580</v>
       </c>
       <c r="J43" s="47" t="s">
@@ -20748,16 +20817,16 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="88">
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="84">
         <v>45580</v>
       </c>
       <c r="J44" s="47" t="s">
@@ -20773,13 +20842,13 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B45" s="117"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="119"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="126"/>
       <c r="I45" s="46"/>
       <c r="J45" s="47"/>
       <c r="K45" s="44"/>
@@ -20788,13 +20857,13 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="119"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
       <c r="I46" s="46"/>
       <c r="J46" s="47"/>
       <c r="K46" s="44"/>
@@ -20803,13 +20872,13 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B47" s="99"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="101"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="108"/>
       <c r="I47" s="46"/>
       <c r="J47" s="47"/>
       <c r="K47" s="44"/>
@@ -20818,13 +20887,13 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B48" s="99"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="101"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="108"/>
       <c r="I48" s="46"/>
       <c r="J48" s="47"/>
       <c r="K48" s="44"/>
@@ -20833,13 +20902,13 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B49" s="96"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="98"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="105"/>
       <c r="I49" s="46"/>
       <c r="J49" s="47"/>
       <c r="K49" s="44"/>
@@ -20848,13 +20917,13 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B50" s="93"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="95"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="102"/>
       <c r="I50" s="37"/>
       <c r="J50" s="38"/>
       <c r="K50" s="35"/>
@@ -20863,13 +20932,13 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B51" s="93"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="95"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="102"/>
       <c r="I51" s="37"/>
       <c r="J51" s="38"/>
       <c r="K51" s="35"/>
@@ -20878,13 +20947,13 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B52" s="93"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="95"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="102"/>
       <c r="I52" s="37"/>
       <c r="J52" s="38"/>
       <c r="K52" s="35"/>
@@ -20893,13 +20962,13 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B53" s="93"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="95"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="102"/>
       <c r="I53" s="37"/>
       <c r="J53" s="38"/>
       <c r="K53" s="35"/>
@@ -20908,13 +20977,13 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="95"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="102"/>
       <c r="I54" s="37"/>
       <c r="J54" s="38"/>
       <c r="K54" s="35"/>
@@ -20923,13 +20992,13 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B55" s="93"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="95"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="102"/>
       <c r="I55" s="37"/>
       <c r="J55" s="38"/>
       <c r="K55" s="35"/>
@@ -20938,13 +21007,13 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B56" s="93"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="95"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="102"/>
       <c r="I56" s="37"/>
       <c r="J56" s="38"/>
       <c r="K56" s="35"/>
@@ -20953,13 +21022,13 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B57" s="93"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="95"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="102"/>
       <c r="I57" s="37"/>
       <c r="J57" s="38"/>
       <c r="K57" s="35"/>
@@ -20968,13 +21037,13 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B58" s="93"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="95"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="102"/>
       <c r="I58" s="37"/>
       <c r="J58" s="38"/>
       <c r="K58" s="35"/>
@@ -20983,13 +21052,13 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="95"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="102"/>
       <c r="I59" s="32"/>
       <c r="J59" s="34"/>
       <c r="K59" s="11"/>
@@ -20998,13 +21067,13 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B60" s="93"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="95"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="102"/>
       <c r="I60" s="32"/>
       <c r="J60" s="34"/>
       <c r="K60" s="11"/>
@@ -21013,13 +21082,13 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="95"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="102"/>
       <c r="I61" s="32"/>
       <c r="J61" s="34"/>
       <c r="K61" s="11"/>
@@ -21028,13 +21097,13 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B62" s="93"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="95"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="102"/>
       <c r="I62" s="32"/>
       <c r="J62" s="34"/>
       <c r="K62" s="11"/>
@@ -21043,13 +21112,13 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B63" s="93"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="95"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="102"/>
       <c r="I63" s="32"/>
       <c r="J63" s="34"/>
       <c r="K63" s="11"/>
@@ -21058,13 +21127,13 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B64" s="93"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="95"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="102"/>
       <c r="I64" s="32"/>
       <c r="J64" s="34"/>
       <c r="K64" s="11"/>
@@ -21073,13 +21142,13 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B65" s="93"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="95"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="102"/>
       <c r="I65" s="32"/>
       <c r="J65" s="34"/>
       <c r="K65" s="11"/>
@@ -21088,13 +21157,13 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B66" s="93"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="95"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="102"/>
       <c r="I66" s="32"/>
       <c r="J66" s="34"/>
       <c r="K66" s="11"/>
@@ -21103,13 +21172,13 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="95"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="102"/>
       <c r="I67" s="32"/>
       <c r="J67" s="34"/>
       <c r="K67" s="11"/>
@@ -21118,13 +21187,13 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B68" s="93"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="95"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="102"/>
       <c r="I68" s="32"/>
       <c r="J68" s="34"/>
       <c r="K68" s="11"/>
@@ -21133,13 +21202,13 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B69" s="93"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="95"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="102"/>
       <c r="I69" s="32"/>
       <c r="J69" s="23"/>
       <c r="K69" s="11"/>
@@ -21148,13 +21217,13 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B70" s="93"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="95"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="102"/>
       <c r="I70" s="32"/>
       <c r="J70" s="23"/>
       <c r="K70" s="11"/>
@@ -21163,13 +21232,13 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B71" s="93"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="95"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="102"/>
       <c r="I71" s="32"/>
       <c r="J71" s="23"/>
       <c r="K71" s="11"/>
@@ -21178,13 +21247,13 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B72" s="93"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="95"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="102"/>
       <c r="I72" s="32"/>
       <c r="J72" s="23"/>
       <c r="K72" s="11"/>
@@ -21208,13 +21277,13 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B74" s="153"/>
-      <c r="C74" s="154"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="154"/>
-      <c r="F74" s="154"/>
-      <c r="G74" s="154"/>
-      <c r="H74" s="155"/>
+      <c r="B74" s="157"/>
+      <c r="C74" s="158"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="158"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="158"/>
+      <c r="H74" s="159"/>
       <c r="I74" s="6"/>
       <c r="J74" s="21"/>
       <c r="K74" s="9"/>
@@ -21223,13 +21292,13 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B75" s="114"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="115"/>
-      <c r="F75" s="115"/>
-      <c r="G75" s="115"/>
-      <c r="H75" s="116"/>
+      <c r="B75" s="121"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="122"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="122"/>
+      <c r="H75" s="123"/>
       <c r="I75" s="25"/>
       <c r="J75" s="26"/>
       <c r="K75" s="27"/>
@@ -21238,13 +21307,13 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B76" s="117"/>
-      <c r="C76" s="118"/>
-      <c r="D76" s="118"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="119"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="125"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="126"/>
       <c r="I76" s="70"/>
       <c r="J76" s="71"/>
       <c r="K76" s="71"/>
@@ -21252,13 +21321,13 @@
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B77" s="153"/>
-      <c r="C77" s="154"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="154"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="155"/>
+      <c r="B77" s="157"/>
+      <c r="C77" s="158"/>
+      <c r="D77" s="158"/>
+      <c r="E77" s="158"/>
+      <c r="F77" s="158"/>
+      <c r="G77" s="158"/>
+      <c r="H77" s="159"/>
       <c r="I77" s="6"/>
       <c r="J77" s="4"/>
       <c r="K77" s="9"/>
@@ -21266,13 +21335,13 @@
       <c r="M77" s="2"/>
     </row>
     <row r="78" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B78" s="159"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="160"/>
-      <c r="E78" s="160"/>
-      <c r="F78" s="160"/>
-      <c r="G78" s="160"/>
-      <c r="H78" s="161"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="164"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="165"/>
       <c r="I78" s="6"/>
       <c r="J78" s="4"/>
       <c r="K78" s="9"/>
@@ -21280,13 +21349,13 @@
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B79" s="162"/>
-      <c r="C79" s="163"/>
-      <c r="D79" s="163"/>
-      <c r="E79" s="163"/>
-      <c r="F79" s="163"/>
-      <c r="G79" s="163"/>
-      <c r="H79" s="163"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
+      <c r="E79" s="167"/>
+      <c r="F79" s="167"/>
+      <c r="G79" s="167"/>
+      <c r="H79" s="167"/>
       <c r="I79" s="7"/>
       <c r="J79" s="4"/>
       <c r="K79" s="9"/>
@@ -21294,13 +21363,13 @@
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B80" s="102"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="103"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
       <c r="I80" s="22"/>
       <c r="J80" s="4"/>
       <c r="K80" s="9"/>
@@ -21308,13 +21377,13 @@
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B81" s="104"/>
-      <c r="C81" s="105"/>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="105"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="112"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="112"/>
+      <c r="G81" s="112"/>
+      <c r="H81" s="112"/>
       <c r="I81" s="7"/>
       <c r="J81" s="4"/>
       <c r="K81" s="9"/>
@@ -21322,13 +21391,13 @@
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B82" s="156"/>
-      <c r="C82" s="157"/>
-      <c r="D82" s="157"/>
-      <c r="E82" s="157"/>
-      <c r="F82" s="157"/>
-      <c r="G82" s="157"/>
-      <c r="H82" s="158"/>
+      <c r="B82" s="160"/>
+      <c r="C82" s="161"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="161"/>
+      <c r="F82" s="161"/>
+      <c r="G82" s="161"/>
+      <c r="H82" s="162"/>
       <c r="I82" s="8"/>
       <c r="J82" s="4"/>
       <c r="K82" s="9"/>
@@ -21336,13 +21405,13 @@
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B83" s="153"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="155"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="158"/>
+      <c r="G83" s="158"/>
+      <c r="H83" s="159"/>
       <c r="I83" s="8"/>
       <c r="J83" s="4"/>
       <c r="K83" s="9"/>
@@ -21350,13 +21419,13 @@
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B84" s="153"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
-      <c r="F84" s="154"/>
-      <c r="G84" s="154"/>
-      <c r="H84" s="155"/>
+      <c r="B84" s="157"/>
+      <c r="C84" s="158"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="158"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="158"/>
+      <c r="H84" s="159"/>
       <c r="I84" s="8"/>
       <c r="J84" s="4"/>
       <c r="K84" s="9"/>
@@ -21364,13 +21433,13 @@
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B85" s="153"/>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="154"/>
-      <c r="H85" s="155"/>
+      <c r="B85" s="157"/>
+      <c r="C85" s="158"/>
+      <c r="D85" s="158"/>
+      <c r="E85" s="158"/>
+      <c r="F85" s="158"/>
+      <c r="G85" s="158"/>
+      <c r="H85" s="159"/>
       <c r="I85" s="8"/>
       <c r="J85" s="4"/>
       <c r="K85" s="9"/>
@@ -21378,13 +21447,13 @@
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B86" s="153"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="155"/>
+      <c r="B86" s="157"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="158"/>
+      <c r="E86" s="158"/>
+      <c r="F86" s="158"/>
+      <c r="G86" s="158"/>
+      <c r="H86" s="159"/>
       <c r="I86" s="8"/>
       <c r="J86" s="4"/>
       <c r="K86" s="9"/>
@@ -21392,13 +21461,13 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B87" s="153"/>
-      <c r="C87" s="154"/>
-      <c r="D87" s="154"/>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
-      <c r="H87" s="155"/>
+      <c r="B87" s="157"/>
+      <c r="C87" s="158"/>
+      <c r="D87" s="158"/>
+      <c r="E87" s="158"/>
+      <c r="F87" s="158"/>
+      <c r="G87" s="158"/>
+      <c r="H87" s="159"/>
       <c r="I87" s="8"/>
       <c r="J87" s="4"/>
       <c r="K87" s="9"/>
@@ -21406,13 +21475,13 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B88" s="153"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="154"/>
-      <c r="F88" s="154"/>
-      <c r="G88" s="154"/>
-      <c r="H88" s="155"/>
+      <c r="B88" s="157"/>
+      <c r="C88" s="158"/>
+      <c r="D88" s="158"/>
+      <c r="E88" s="158"/>
+      <c r="F88" s="158"/>
+      <c r="G88" s="158"/>
+      <c r="H88" s="159"/>
       <c r="I88" s="8"/>
       <c r="J88" s="4"/>
       <c r="K88" s="9"/>
@@ -21420,13 +21489,13 @@
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B89" s="153"/>
-      <c r="C89" s="154"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="154"/>
-      <c r="F89" s="154"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="155"/>
+      <c r="B89" s="157"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="158"/>
+      <c r="F89" s="158"/>
+      <c r="G89" s="158"/>
+      <c r="H89" s="159"/>
       <c r="I89" s="8"/>
       <c r="J89" s="4"/>
       <c r="K89" s="9"/>
@@ -21434,13 +21503,13 @@
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B90" s="153"/>
-      <c r="C90" s="154"/>
-      <c r="D90" s="154"/>
-      <c r="E90" s="154"/>
-      <c r="F90" s="154"/>
-      <c r="G90" s="154"/>
-      <c r="H90" s="155"/>
+      <c r="B90" s="157"/>
+      <c r="C90" s="158"/>
+      <c r="D90" s="158"/>
+      <c r="E90" s="158"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="158"/>
+      <c r="H90" s="159"/>
       <c r="I90" s="8"/>
       <c r="J90" s="4"/>
       <c r="K90" s="9"/>
@@ -21448,13 +21517,13 @@
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B91" s="153"/>
-      <c r="C91" s="154"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="154"/>
-      <c r="F91" s="154"/>
-      <c r="G91" s="154"/>
-      <c r="H91" s="155"/>
+      <c r="B91" s="157"/>
+      <c r="C91" s="158"/>
+      <c r="D91" s="158"/>
+      <c r="E91" s="158"/>
+      <c r="F91" s="158"/>
+      <c r="G91" s="158"/>
+      <c r="H91" s="159"/>
       <c r="I91" s="8"/>
       <c r="J91" s="4"/>
       <c r="K91" s="9"/>
@@ -21462,13 +21531,13 @@
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B92" s="153"/>
-      <c r="C92" s="154"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="154"/>
-      <c r="F92" s="154"/>
-      <c r="G92" s="154"/>
-      <c r="H92" s="155"/>
+      <c r="B92" s="157"/>
+      <c r="C92" s="158"/>
+      <c r="D92" s="158"/>
+      <c r="E92" s="158"/>
+      <c r="F92" s="158"/>
+      <c r="G92" s="158"/>
+      <c r="H92" s="159"/>
       <c r="I92" s="8"/>
       <c r="J92" s="4"/>
       <c r="K92" s="9"/>
@@ -21476,13 +21545,13 @@
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B93" s="153"/>
-      <c r="C93" s="154"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="154"/>
-      <c r="H93" s="155"/>
+      <c r="B93" s="157"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="158"/>
+      <c r="G93" s="158"/>
+      <c r="H93" s="159"/>
       <c r="I93" s="8"/>
       <c r="J93" s="4"/>
       <c r="K93" s="9"/>
@@ -21490,13 +21559,13 @@
       <c r="M93" s="2"/>
     </row>
     <row r="94" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B94" s="153"/>
-      <c r="C94" s="154"/>
-      <c r="D94" s="154"/>
-      <c r="E94" s="154"/>
-      <c r="F94" s="154"/>
-      <c r="G94" s="154"/>
-      <c r="H94" s="155"/>
+      <c r="B94" s="157"/>
+      <c r="C94" s="158"/>
+      <c r="D94" s="158"/>
+      <c r="E94" s="158"/>
+      <c r="F94" s="158"/>
+      <c r="G94" s="158"/>
+      <c r="H94" s="159"/>
       <c r="I94" s="8"/>
       <c r="J94" s="4"/>
       <c r="K94" s="9"/>
@@ -21504,13 +21573,13 @@
       <c r="M94" s="2"/>
     </row>
     <row r="95" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B95" s="153"/>
-      <c r="C95" s="154"/>
-      <c r="D95" s="154"/>
-      <c r="E95" s="154"/>
-      <c r="F95" s="154"/>
-      <c r="G95" s="154"/>
-      <c r="H95" s="155"/>
+      <c r="B95" s="157"/>
+      <c r="C95" s="158"/>
+      <c r="D95" s="158"/>
+      <c r="E95" s="158"/>
+      <c r="F95" s="158"/>
+      <c r="G95" s="158"/>
+      <c r="H95" s="159"/>
       <c r="I95" s="8"/>
       <c r="J95" s="4"/>
       <c r="K95" s="9"/>
@@ -21518,13 +21587,13 @@
       <c r="M95" s="2"/>
     </row>
     <row r="96" spans="2:13" ht="13.15">
-      <c r="B96" s="153"/>
-      <c r="C96" s="154"/>
-      <c r="D96" s="154"/>
-      <c r="E96" s="154"/>
-      <c r="F96" s="154"/>
-      <c r="G96" s="154"/>
-      <c r="H96" s="155"/>
+      <c r="B96" s="157"/>
+      <c r="C96" s="158"/>
+      <c r="D96" s="158"/>
+      <c r="E96" s="158"/>
+      <c r="F96" s="158"/>
+      <c r="G96" s="158"/>
+      <c r="H96" s="159"/>
       <c r="I96" s="8"/>
       <c r="J96" s="4"/>
       <c r="K96" s="9"/>
@@ -21532,13 +21601,13 @@
       <c r="M96" s="2"/>
     </row>
     <row r="97" spans="2:13" ht="13.15">
-      <c r="B97" s="153"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="154"/>
-      <c r="H97" s="155"/>
+      <c r="B97" s="157"/>
+      <c r="C97" s="158"/>
+      <c r="D97" s="158"/>
+      <c r="E97" s="158"/>
+      <c r="F97" s="158"/>
+      <c r="G97" s="158"/>
+      <c r="H97" s="159"/>
       <c r="I97" s="8"/>
       <c r="J97" s="4"/>
       <c r="K97" s="9"/>
@@ -21546,13 +21615,13 @@
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="2:13" ht="13.15">
-      <c r="B98" s="153"/>
-      <c r="C98" s="154"/>
-      <c r="D98" s="154"/>
-      <c r="E98" s="154"/>
-      <c r="F98" s="154"/>
-      <c r="G98" s="154"/>
-      <c r="H98" s="155"/>
+      <c r="B98" s="157"/>
+      <c r="C98" s="158"/>
+      <c r="D98" s="158"/>
+      <c r="E98" s="158"/>
+      <c r="F98" s="158"/>
+      <c r="G98" s="158"/>
+      <c r="H98" s="159"/>
       <c r="I98" s="8"/>
       <c r="J98" s="4"/>
       <c r="K98" s="9"/>
@@ -21560,13 +21629,13 @@
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="2:13" ht="13.15">
-      <c r="B99" s="153"/>
-      <c r="C99" s="154"/>
-      <c r="D99" s="154"/>
-      <c r="E99" s="154"/>
-      <c r="F99" s="154"/>
-      <c r="G99" s="154"/>
-      <c r="H99" s="155"/>
+      <c r="B99" s="157"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="158"/>
+      <c r="E99" s="158"/>
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="159"/>
       <c r="I99" s="8"/>
       <c r="J99" s="4"/>
       <c r="K99" s="9"/>
@@ -21574,13 +21643,13 @@
       <c r="M99" s="2"/>
     </row>
     <row r="100" spans="2:13" ht="13.15">
-      <c r="B100" s="153"/>
-      <c r="C100" s="154"/>
-      <c r="D100" s="154"/>
-      <c r="E100" s="154"/>
-      <c r="F100" s="154"/>
-      <c r="G100" s="154"/>
-      <c r="H100" s="155"/>
+      <c r="B100" s="157"/>
+      <c r="C100" s="158"/>
+      <c r="D100" s="158"/>
+      <c r="E100" s="158"/>
+      <c r="F100" s="158"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="159"/>
       <c r="I100" s="8"/>
       <c r="J100" s="4"/>
       <c r="K100" s="9"/>
@@ -21588,13 +21657,13 @@
       <c r="M100" s="2"/>
     </row>
     <row r="101" spans="2:13" ht="13.15">
-      <c r="B101" s="153"/>
-      <c r="C101" s="154"/>
-      <c r="D101" s="154"/>
-      <c r="E101" s="154"/>
-      <c r="F101" s="154"/>
-      <c r="G101" s="154"/>
-      <c r="H101" s="155"/>
+      <c r="B101" s="157"/>
+      <c r="C101" s="158"/>
+      <c r="D101" s="158"/>
+      <c r="E101" s="158"/>
+      <c r="F101" s="158"/>
+      <c r="G101" s="158"/>
+      <c r="H101" s="159"/>
       <c r="I101" s="8"/>
       <c r="J101" s="4"/>
       <c r="K101" s="9"/>
@@ -21602,13 +21671,13 @@
       <c r="M101" s="2"/>
     </row>
     <row r="102" spans="2:13" ht="13.15">
-      <c r="B102" s="153"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="154"/>
-      <c r="E102" s="154"/>
-      <c r="F102" s="154"/>
-      <c r="G102" s="154"/>
-      <c r="H102" s="155"/>
+      <c r="B102" s="157"/>
+      <c r="C102" s="158"/>
+      <c r="D102" s="158"/>
+      <c r="E102" s="158"/>
+      <c r="F102" s="158"/>
+      <c r="G102" s="158"/>
+      <c r="H102" s="159"/>
       <c r="I102" s="8"/>
       <c r="J102" s="4"/>
       <c r="K102" s="9"/>
@@ -21616,13 +21685,13 @@
       <c r="M102" s="2"/>
     </row>
     <row r="103" spans="2:13" ht="13.15">
-      <c r="B103" s="153"/>
-      <c r="C103" s="154"/>
-      <c r="D103" s="154"/>
-      <c r="E103" s="154"/>
-      <c r="F103" s="154"/>
-      <c r="G103" s="154"/>
-      <c r="H103" s="155"/>
+      <c r="B103" s="157"/>
+      <c r="C103" s="158"/>
+      <c r="D103" s="158"/>
+      <c r="E103" s="158"/>
+      <c r="F103" s="158"/>
+      <c r="G103" s="158"/>
+      <c r="H103" s="159"/>
       <c r="I103" s="8"/>
       <c r="J103" s="4"/>
       <c r="K103" s="9"/>
@@ -21630,13 +21699,13 @@
       <c r="M103" s="2"/>
     </row>
     <row r="104" spans="2:13" ht="13.15">
-      <c r="B104" s="153"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="155"/>
+      <c r="B104" s="157"/>
+      <c r="C104" s="158"/>
+      <c r="D104" s="158"/>
+      <c r="E104" s="158"/>
+      <c r="F104" s="158"/>
+      <c r="G104" s="158"/>
+      <c r="H104" s="159"/>
       <c r="I104" s="8"/>
       <c r="J104" s="4"/>
       <c r="K104" s="9"/>
@@ -21644,13 +21713,13 @@
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="2:13" ht="13.15">
-      <c r="B105" s="153"/>
-      <c r="C105" s="154"/>
-      <c r="D105" s="154"/>
-      <c r="E105" s="154"/>
-      <c r="F105" s="154"/>
-      <c r="G105" s="154"/>
-      <c r="H105" s="155"/>
+      <c r="B105" s="157"/>
+      <c r="C105" s="158"/>
+      <c r="D105" s="158"/>
+      <c r="E105" s="158"/>
+      <c r="F105" s="158"/>
+      <c r="G105" s="158"/>
+      <c r="H105" s="159"/>
       <c r="I105" s="8"/>
       <c r="J105" s="4"/>
       <c r="K105" s="9"/>
@@ -21658,13 +21727,13 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="13.15">
-      <c r="B106" s="153"/>
-      <c r="C106" s="154"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="154"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="155"/>
+      <c r="B106" s="157"/>
+      <c r="C106" s="158"/>
+      <c r="D106" s="158"/>
+      <c r="E106" s="158"/>
+      <c r="F106" s="158"/>
+      <c r="G106" s="158"/>
+      <c r="H106" s="159"/>
       <c r="I106" s="8"/>
       <c r="J106" s="4"/>
       <c r="K106" s="9"/>
@@ -21672,13 +21741,13 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="13.15">
-      <c r="B107" s="153"/>
-      <c r="C107" s="154"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="154"/>
-      <c r="F107" s="154"/>
-      <c r="G107" s="154"/>
-      <c r="H107" s="155"/>
+      <c r="B107" s="157"/>
+      <c r="C107" s="158"/>
+      <c r="D107" s="158"/>
+      <c r="E107" s="158"/>
+      <c r="F107" s="158"/>
+      <c r="G107" s="158"/>
+      <c r="H107" s="159"/>
       <c r="I107" s="8"/>
       <c r="J107" s="4"/>
       <c r="K107" s="9"/>
@@ -21686,13 +21755,13 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="13.15">
-      <c r="B108" s="153"/>
-      <c r="C108" s="154"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="154"/>
-      <c r="F108" s="154"/>
-      <c r="G108" s="154"/>
-      <c r="H108" s="155"/>
+      <c r="B108" s="157"/>
+      <c r="C108" s="158"/>
+      <c r="D108" s="158"/>
+      <c r="E108" s="158"/>
+      <c r="F108" s="158"/>
+      <c r="G108" s="158"/>
+      <c r="H108" s="159"/>
       <c r="I108" s="8"/>
       <c r="J108" s="3"/>
       <c r="K108" s="9"/>
@@ -21700,13 +21769,13 @@
       <c r="M108" s="2"/>
     </row>
     <row r="109" spans="2:13" ht="13.15">
-      <c r="B109" s="153"/>
-      <c r="C109" s="154"/>
-      <c r="D109" s="154"/>
-      <c r="E109" s="154"/>
-      <c r="F109" s="154"/>
-      <c r="G109" s="154"/>
-      <c r="H109" s="155"/>
+      <c r="B109" s="157"/>
+      <c r="C109" s="158"/>
+      <c r="D109" s="158"/>
+      <c r="E109" s="158"/>
+      <c r="F109" s="158"/>
+      <c r="G109" s="158"/>
+      <c r="H109" s="159"/>
       <c r="I109" s="8"/>
       <c r="J109" s="3"/>
       <c r="K109" s="9"/>
@@ -21714,13 +21783,13 @@
       <c r="M109" s="2"/>
     </row>
     <row r="110" spans="2:13" ht="13.15">
-      <c r="B110" s="153"/>
-      <c r="C110" s="154"/>
-      <c r="D110" s="154"/>
-      <c r="E110" s="154"/>
-      <c r="F110" s="154"/>
-      <c r="G110" s="154"/>
-      <c r="H110" s="155"/>
+      <c r="B110" s="157"/>
+      <c r="C110" s="158"/>
+      <c r="D110" s="158"/>
+      <c r="E110" s="158"/>
+      <c r="F110" s="158"/>
+      <c r="G110" s="158"/>
+      <c r="H110" s="159"/>
       <c r="I110" s="8"/>
       <c r="J110" s="3"/>
       <c r="K110" s="9"/>
@@ -21728,13 +21797,13 @@
       <c r="M110" s="2"/>
     </row>
     <row r="111" spans="2:13" ht="13.15">
-      <c r="B111" s="153"/>
-      <c r="C111" s="154"/>
-      <c r="D111" s="154"/>
-      <c r="E111" s="154"/>
-      <c r="F111" s="154"/>
-      <c r="G111" s="154"/>
-      <c r="H111" s="155"/>
+      <c r="B111" s="157"/>
+      <c r="C111" s="158"/>
+      <c r="D111" s="158"/>
+      <c r="E111" s="158"/>
+      <c r="F111" s="158"/>
+      <c r="G111" s="158"/>
+      <c r="H111" s="159"/>
       <c r="I111" s="8"/>
       <c r="J111" s="3"/>
       <c r="K111" s="9"/>
@@ -21742,13 +21811,13 @@
       <c r="M111" s="2"/>
     </row>
     <row r="112" spans="2:13" ht="13.15">
-      <c r="B112" s="164"/>
-      <c r="C112" s="165"/>
-      <c r="D112" s="165"/>
-      <c r="E112" s="165"/>
-      <c r="F112" s="165"/>
-      <c r="G112" s="165"/>
-      <c r="H112" s="166"/>
+      <c r="B112" s="168"/>
+      <c r="C112" s="169"/>
+      <c r="D112" s="169"/>
+      <c r="E112" s="169"/>
+      <c r="F112" s="169"/>
+      <c r="G112" s="169"/>
+      <c r="H112" s="170"/>
       <c r="I112" s="12"/>
       <c r="J112" s="18"/>
       <c r="K112" s="13"/>
@@ -35019,10 +35088,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:O1011"/>
+  <dimension ref="B2:O1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -35032,7 +35101,7 @@
     <col min="3" max="3" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625"/>
     <col min="9" max="9" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -35045,7 +35114,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="48">
-        <v>45061</v>
+        <v>45586</v>
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="50" t="s">
@@ -35053,7 +35122,7 @@
       </c>
       <c r="F2" s="51">
         <f ca="1">TODAY()</f>
-        <v>45585</v>
+        <v>45608</v>
       </c>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
@@ -35121,17 +35190,17 @@
       </c>
       <c r="C6" s="60">
         <f>C2</f>
-        <v>45061</v>
+        <v>45586</v>
       </c>
       <c r="D6" s="44">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E6" s="44">
         <v>0</v>
       </c>
       <c r="F6" s="61">
         <f>D6-E6</f>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
@@ -35146,18 +35215,18 @@
       </c>
       <c r="C7" s="63">
         <f t="shared" ref="C7:C26" si="0">C6+1</f>
-        <v>45062</v>
+        <v>45587</v>
       </c>
       <c r="D7" s="64">
         <f>D6-$D$6/($C$3-1)</f>
-        <v>38</v>
+        <v>80.75</v>
       </c>
       <c r="E7" s="64">
         <v>0</v>
       </c>
       <c r="F7" s="65">
         <f ca="1">IF(C7&lt;=$F$2,F6-E7,)</f>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G7" s="52"/>
       <c r="H7" s="52"/>
@@ -35172,18 +35241,18 @@
       </c>
       <c r="C8" s="63">
         <f t="shared" si="0"/>
-        <v>45063</v>
+        <v>45588</v>
       </c>
       <c r="D8" s="64">
         <f t="shared" ref="D8:D26" si="1">D7-$D$6/($C$3-1)</f>
-        <v>36</v>
+        <v>76.5</v>
       </c>
       <c r="E8" s="64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="65">
         <f ca="1">IF(C8&lt;=$F$2,F7-E8,)</f>
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G8" s="52"/>
       <c r="H8" s="52"/>
@@ -35198,18 +35267,18 @@
       </c>
       <c r="C9" s="63">
         <f t="shared" si="0"/>
-        <v>45064</v>
+        <v>45589</v>
       </c>
       <c r="D9" s="64">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>72.25</v>
       </c>
       <c r="E9" s="64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="65">
         <f t="shared" ref="F9:F26" ca="1" si="2">IF(C9&lt;=$F$2,F8-E9,)</f>
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
@@ -35224,18 +35293,18 @@
       </c>
       <c r="C10" s="63">
         <f t="shared" si="0"/>
-        <v>45065</v>
+        <v>45590</v>
       </c>
       <c r="D10" s="64">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E10" s="64">
         <v>2</v>
       </c>
       <c r="F10" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
@@ -35250,18 +35319,18 @@
       </c>
       <c r="C11" s="63">
         <f t="shared" si="0"/>
-        <v>45066</v>
+        <v>45591</v>
       </c>
       <c r="D11" s="64">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>63.75</v>
       </c>
       <c r="E11" s="64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
@@ -35276,18 +35345,18 @@
       </c>
       <c r="C12" s="63">
         <f t="shared" si="0"/>
-        <v>45067</v>
+        <v>45592</v>
       </c>
       <c r="D12" s="64">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>59.5</v>
       </c>
       <c r="E12" s="64">
         <v>1</v>
       </c>
       <c r="F12" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -35302,18 +35371,18 @@
       </c>
       <c r="C13" s="63">
         <f t="shared" si="0"/>
-        <v>45068</v>
+        <v>45593</v>
       </c>
       <c r="D13" s="64">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>55.25</v>
       </c>
       <c r="E13" s="64">
         <v>3</v>
       </c>
       <c r="F13" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
@@ -35328,18 +35397,18 @@
       </c>
       <c r="C14" s="63">
         <f t="shared" si="0"/>
-        <v>45069</v>
+        <v>45594</v>
       </c>
       <c r="D14" s="64">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E14" s="64">
         <v>3</v>
       </c>
       <c r="F14" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -35354,18 +35423,18 @@
       </c>
       <c r="C15" s="63">
         <f t="shared" si="0"/>
-        <v>45070</v>
+        <v>45595</v>
       </c>
       <c r="D15" s="64">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>46.75</v>
       </c>
       <c r="E15" s="64">
         <v>5</v>
       </c>
       <c r="F15" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -35380,18 +35449,18 @@
       </c>
       <c r="C16" s="63">
         <f t="shared" si="0"/>
-        <v>45071</v>
+        <v>45596</v>
       </c>
       <c r="D16" s="64">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>42.5</v>
       </c>
       <c r="E16" s="64">
         <v>2</v>
       </c>
       <c r="F16" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -35406,18 +35475,18 @@
       </c>
       <c r="C17" s="63">
         <f t="shared" si="0"/>
-        <v>45072</v>
+        <v>45597</v>
       </c>
       <c r="D17" s="64">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>38.25</v>
       </c>
       <c r="E17" s="64">
         <v>3</v>
       </c>
       <c r="F17" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
@@ -35432,18 +35501,18 @@
       </c>
       <c r="C18" s="63">
         <f t="shared" si="0"/>
-        <v>45073</v>
+        <v>45598</v>
       </c>
       <c r="D18" s="64">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E18" s="64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
@@ -35458,18 +35527,18 @@
       </c>
       <c r="C19" s="63">
         <f t="shared" si="0"/>
-        <v>45074</v>
+        <v>45599</v>
       </c>
       <c r="D19" s="64">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>29.75</v>
       </c>
       <c r="E19" s="64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
@@ -35484,18 +35553,18 @@
       </c>
       <c r="C20" s="63">
         <f t="shared" si="0"/>
-        <v>45075</v>
+        <v>45600</v>
       </c>
       <c r="D20" s="64">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>25.5</v>
       </c>
       <c r="E20" s="64">
         <v>3</v>
       </c>
       <c r="F20" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -35510,18 +35579,18 @@
       </c>
       <c r="C21" s="63">
         <f t="shared" si="0"/>
-        <v>45076</v>
+        <v>45601</v>
       </c>
       <c r="D21" s="64">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>21.25</v>
       </c>
       <c r="E21" s="64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F21" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
@@ -35536,18 +35605,18 @@
       </c>
       <c r="C22" s="63">
         <f t="shared" si="0"/>
-        <v>45077</v>
+        <v>45602</v>
       </c>
       <c r="D22" s="64">
         <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E22" s="64">
         <v>8</v>
-      </c>
-      <c r="E22" s="64">
-        <v>3</v>
       </c>
       <c r="F22" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
@@ -35562,18 +35631,18 @@
       </c>
       <c r="C23" s="63">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>45603</v>
       </c>
       <c r="D23" s="64">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12.75</v>
       </c>
       <c r="E23" s="64">
         <v>5</v>
       </c>
       <c r="F23" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
@@ -35588,18 +35657,18 @@
       </c>
       <c r="C24" s="63">
         <f t="shared" si="0"/>
-        <v>45079</v>
+        <v>45604</v>
       </c>
       <c r="D24" s="64">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="E24" s="64">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F24" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -35614,18 +35683,18 @@
       </c>
       <c r="C25" s="63">
         <f t="shared" si="0"/>
-        <v>45080</v>
+        <v>45605</v>
       </c>
       <c r="D25" s="64">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="E25" s="64">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F25" s="65">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
@@ -35640,18 +35709,18 @@
       </c>
       <c r="C26" s="67">
         <f t="shared" si="0"/>
-        <v>45081</v>
+        <v>45606</v>
       </c>
       <c r="D26" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26" s="68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="69">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
@@ -35674,737 +35743,830 @@
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="108"/>
-    </row>
-    <row r="29" spans="2:15" ht="15" customHeight="1">
-      <c r="B29" s="128" t="s">
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="115"/>
+    </row>
+    <row r="29" spans="2:15" ht="15" customHeight="1" thickBot="1">
+      <c r="B29" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="83" t="s">
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="83" t="s">
+      <c r="J29" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="83" t="s">
+      <c r="K29" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="84" t="s">
+      <c r="L29" s="80" t="s">
         <v>13</v>
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B30" s="131" t="s">
+    <row r="30" spans="2:15" ht="32.450000000000003" customHeight="1">
+      <c r="B30" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="72">
-        <v>45061</v>
-      </c>
-      <c r="J30" s="73" t="s">
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="93">
+        <v>45599</v>
+      </c>
+      <c r="J30" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="74">
-        <v>2</v>
-      </c>
-      <c r="L30" s="75">
-        <v>45068</v>
+      <c r="K30" s="87">
+        <v>3</v>
+      </c>
+      <c r="L30" s="95">
+        <v>45599</v>
       </c>
       <c r="M30" s="2"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B31" s="133" t="s">
+    <row r="31" spans="2:15" s="91" customFormat="1" ht="33.6" customHeight="1">
+      <c r="B31" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="42">
-        <v>45066</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" s="44">
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="94">
+        <v>45588</v>
+      </c>
+      <c r="J31" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="89">
         <v>2</v>
       </c>
-      <c r="L31" s="76"/>
-      <c r="M31" s="2"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B32" s="133" t="s">
+      <c r="L31" s="96">
+        <v>45589</v>
+      </c>
+      <c r="M31" s="90"/>
+      <c r="O31" s="92"/>
+    </row>
+    <row r="32" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B32" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="42">
-        <v>45066</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32" s="44">
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="94">
+        <v>45592</v>
+      </c>
+      <c r="J32" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="89">
         <v>2</v>
       </c>
-      <c r="L32" s="76"/>
+      <c r="L32" s="96">
+        <v>45592</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B33" s="133" t="s">
+    <row r="33" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B33" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="42">
-        <v>45066</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33" s="44">
-        <v>2</v>
-      </c>
-      <c r="L33" s="76"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="94">
+        <v>45594</v>
+      </c>
+      <c r="J33" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="89">
+        <v>4</v>
+      </c>
+      <c r="L33" s="96">
+        <v>45594</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B34" s="134" t="s">
+    <row r="34" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B34" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="42">
-        <v>45066</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="K34" s="44">
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="94">
+        <v>45597</v>
+      </c>
+      <c r="J34" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="89">
         <v>4</v>
       </c>
-      <c r="L34" s="76"/>
+      <c r="L34" s="96">
+        <v>45597</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B35" s="133" t="s">
+    <row r="35" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B35" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="42">
-        <v>45066</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35" s="44">
-        <v>8</v>
-      </c>
-      <c r="L35" s="76"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="94">
+        <v>45592</v>
+      </c>
+      <c r="J35" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="89">
+        <v>2</v>
+      </c>
+      <c r="L35" s="96">
+        <v>45592</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B36" s="133" t="s">
+    <row r="36" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B36" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="42">
-        <v>45066</v>
-      </c>
-      <c r="J36" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="44">
-        <v>8</v>
-      </c>
-      <c r="L36" s="76">
-        <v>45070</v>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="94">
+        <v>45581</v>
+      </c>
+      <c r="J36" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="89">
+        <v>10</v>
+      </c>
+      <c r="L36" s="96">
+        <v>45583</v>
       </c>
       <c r="M36" s="2"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B37" s="137"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="76"/>
+    <row r="37" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B37" s="132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="94">
+        <v>45602</v>
+      </c>
+      <c r="J37" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="89">
+        <v>5</v>
+      </c>
+      <c r="L37" s="96">
+        <v>45602</v>
+      </c>
       <c r="M37" s="2"/>
-      <c r="N37">
-        <f>SUM(K30:K44)</f>
-        <v>28</v>
-      </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B38" s="138"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="76"/>
+    <row r="38" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B38" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="94">
+        <v>45602</v>
+      </c>
+      <c r="J38" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="89">
+        <v>5</v>
+      </c>
+      <c r="L38" s="96">
+        <v>45602</v>
+      </c>
       <c r="M38" s="2"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B39" s="125"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="76"/>
+    <row r="39" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B39" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="94">
+        <v>45593</v>
+      </c>
+      <c r="J39" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="89">
+        <v>2</v>
+      </c>
+      <c r="L39" s="96">
+        <v>45593</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B40" s="125"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="76"/>
+    <row r="40" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B40" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="94">
+        <v>45596</v>
+      </c>
+      <c r="J40" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="89">
+        <v>6</v>
+      </c>
+      <c r="L40" s="96">
+        <v>45598</v>
+      </c>
       <c r="M40" s="2"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B41" s="125"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="76"/>
+    <row r="41" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B41" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="94">
+        <v>45598</v>
+      </c>
+      <c r="J41" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41" s="89">
+        <v>5</v>
+      </c>
+      <c r="L41" s="96">
+        <v>45598</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B42" s="142"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="76"/>
+    <row r="42" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B42" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="94">
+        <v>45588</v>
+      </c>
+      <c r="J42" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="89">
+        <v>5</v>
+      </c>
+      <c r="L42" s="96">
+        <v>45608</v>
+      </c>
       <c r="M42" s="2"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B43" s="142"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="76"/>
+    <row r="43" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B43" s="132" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="94">
+        <v>45586</v>
+      </c>
+      <c r="J43" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="K43" s="89">
+        <v>10</v>
+      </c>
+      <c r="L43" s="96">
+        <v>45607</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B44" s="142"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="76"/>
+    <row r="44" spans="2:15" ht="33.6" customHeight="1">
+      <c r="B44" s="132" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="134"/>
+      <c r="I44" s="94">
+        <v>45603</v>
+      </c>
+      <c r="J44" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="89">
+        <v>6</v>
+      </c>
+      <c r="L44" s="96">
+        <v>45603</v>
+      </c>
       <c r="M44" s="2"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B45" s="143"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="76"/>
+    <row r="45" spans="2:15" ht="35.25" customHeight="1">
+      <c r="B45" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="134"/>
+      <c r="I45" s="46">
+        <v>45594</v>
+      </c>
+      <c r="J45" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="44">
+        <v>10</v>
+      </c>
+      <c r="L45" s="72">
+        <v>45594</v>
+      </c>
       <c r="M45" s="2"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B46" s="143"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="119"/>
+    <row r="46" spans="2:15" ht="39.75" customHeight="1">
+      <c r="B46" s="132"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="134"/>
       <c r="I46" s="46"/>
-      <c r="J46" s="47"/>
+      <c r="J46" s="88"/>
       <c r="K46" s="44"/>
-      <c r="L46" s="76"/>
+      <c r="L46" s="72"/>
       <c r="M46" s="2"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B47" s="142"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="76"/>
+    <row r="47" spans="2:15" ht="42.75" customHeight="1">
+      <c r="B47" s="132"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="73"/>
       <c r="M47" s="2"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B48" s="142"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="76"/>
+    <row r="48" spans="2:15" ht="45.75" customHeight="1">
+      <c r="B48" s="132"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="73"/>
       <c r="M48" s="2"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B49" s="144"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="76"/>
+    <row r="49" spans="2:15" ht="40.5" customHeight="1">
+      <c r="B49" s="132"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="73"/>
       <c r="M49" s="2"/>
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B50" s="141"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="95"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="145"/>
       <c r="I50" s="37"/>
       <c r="J50" s="38"/>
       <c r="K50" s="35"/>
-      <c r="L50" s="77"/>
+      <c r="L50" s="73"/>
       <c r="M50" s="2"/>
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B51" s="141"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="95"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="145"/>
       <c r="I51" s="37"/>
       <c r="J51" s="38"/>
       <c r="K51" s="35"/>
-      <c r="L51" s="77"/>
+      <c r="L51" s="73"/>
       <c r="M51" s="2"/>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B52" s="141"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="95"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="102"/>
       <c r="I52" s="37"/>
       <c r="J52" s="38"/>
       <c r="K52" s="35"/>
-      <c r="L52" s="77"/>
+      <c r="L52" s="73"/>
       <c r="M52" s="2"/>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B53" s="141"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="95"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="102"/>
       <c r="I53" s="37"/>
       <c r="J53" s="38"/>
       <c r="K53" s="35"/>
-      <c r="L53" s="77"/>
+      <c r="L53" s="73"/>
       <c r="M53" s="2"/>
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B54" s="141"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="95"/>
+      <c r="B54" s="146"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="102"/>
       <c r="I54" s="37"/>
       <c r="J54" s="38"/>
       <c r="K54" s="35"/>
-      <c r="L54" s="77"/>
+      <c r="L54" s="73"/>
       <c r="M54" s="2"/>
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B55" s="141"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="95"/>
+      <c r="B55" s="146"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="102"/>
       <c r="I55" s="37"/>
       <c r="J55" s="38"/>
       <c r="K55" s="35"/>
-      <c r="L55" s="77"/>
+      <c r="L55" s="73"/>
       <c r="M55" s="2"/>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B56" s="141"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="77"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="74"/>
       <c r="M56" s="2"/>
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B57" s="141"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="77"/>
+      <c r="B57" s="146"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="74"/>
       <c r="M57" s="2"/>
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B58" s="141"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="77"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="74"/>
       <c r="M58" s="2"/>
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B59" s="141"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="95"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="102"/>
       <c r="I59" s="32"/>
       <c r="J59" s="34"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="78"/>
+      <c r="L59" s="74"/>
       <c r="M59" s="2"/>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B60" s="141"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="95"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="102"/>
       <c r="I60" s="32"/>
       <c r="J60" s="34"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="78"/>
+      <c r="L60" s="74"/>
       <c r="M60" s="2"/>
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B61" s="141"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="95"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="102"/>
       <c r="I61" s="32"/>
       <c r="J61" s="34"/>
       <c r="K61" s="11"/>
-      <c r="L61" s="78"/>
+      <c r="L61" s="74"/>
       <c r="M61" s="2"/>
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B62" s="141"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="95"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="102"/>
       <c r="I62" s="32"/>
       <c r="J62" s="34"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="78"/>
+      <c r="L62" s="74"/>
       <c r="M62" s="2"/>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B63" s="141"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="95"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="102"/>
       <c r="I63" s="32"/>
       <c r="J63" s="34"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="78"/>
+      <c r="L63" s="74"/>
       <c r="M63" s="2"/>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B64" s="141"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="95"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="102"/>
       <c r="I64" s="32"/>
       <c r="J64" s="34"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="78"/>
+      <c r="L64" s="74"/>
       <c r="M64" s="2"/>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B65" s="141"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="95"/>
+      <c r="B65" s="146"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="102"/>
       <c r="I65" s="32"/>
       <c r="J65" s="34"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="78"/>
+      <c r="L65" s="74"/>
       <c r="M65" s="2"/>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B66" s="141"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="95"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="102"/>
       <c r="I66" s="32"/>
-      <c r="J66" s="34"/>
+      <c r="J66" s="23"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="78"/>
+      <c r="L66" s="74"/>
       <c r="M66" s="2"/>
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B67" s="141"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="95"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="102"/>
       <c r="I67" s="32"/>
-      <c r="J67" s="34"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="78"/>
+      <c r="L67" s="74"/>
       <c r="M67" s="2"/>
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B68" s="141"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="11"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="77"/>
       <c r="L68" s="78"/>
       <c r="M68" s="2"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B69" s="141"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="78"/>
+    <row r="69" spans="2:15" ht="13.15">
+      <c r="B69" s="20"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="10"/>
       <c r="M69" s="2"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B70" s="141"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="95"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="78"/>
+    </row>
+    <row r="70" spans="2:15" ht="13.15">
+      <c r="B70" s="20"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="10"/>
       <c r="M70" s="2"/>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B71" s="145"/>
-      <c r="C71" s="146"/>
-      <c r="D71" s="146"/>
-      <c r="E71" s="146"/>
-      <c r="F71" s="146"/>
-      <c r="G71" s="146"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="82"/>
+    </row>
+    <row r="71" spans="2:15" ht="13.15">
+      <c r="B71" s="20"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="10"/>
       <c r="M71" s="2"/>
-      <c r="O71" s="1"/>
     </row>
     <row r="72" spans="2:15" ht="13.15">
       <c r="B72" s="20"/>
@@ -49524,59 +49686,20 @@
       <c r="L1008" s="10"/>
       <c r="M1008" s="2"/>
     </row>
-    <row r="1009" spans="2:13" ht="13.15">
-      <c r="B1009" s="20"/>
-      <c r="C1009" s="10"/>
-      <c r="D1009" s="20"/>
-      <c r="E1009" s="20"/>
-      <c r="F1009" s="20"/>
-      <c r="G1009" s="1"/>
-      <c r="H1009" s="1"/>
-      <c r="I1009" s="10"/>
-      <c r="J1009" s="1"/>
-      <c r="K1009" s="20"/>
-      <c r="L1009" s="10"/>
-      <c r="M1009" s="2"/>
-    </row>
-    <row r="1010" spans="2:13" ht="13.15">
-      <c r="B1010" s="20"/>
-      <c r="C1010" s="10"/>
-      <c r="D1010" s="20"/>
-      <c r="E1010" s="20"/>
-      <c r="F1010" s="20"/>
-      <c r="G1010" s="1"/>
-      <c r="H1010" s="1"/>
-      <c r="I1010" s="10"/>
-      <c r="J1010" s="1"/>
-      <c r="K1010" s="20"/>
-      <c r="L1010" s="10"/>
-      <c r="M1010" s="2"/>
-    </row>
-    <row r="1011" spans="2:13" ht="13.15">
-      <c r="B1011" s="20"/>
-      <c r="C1011" s="10"/>
-      <c r="D1011" s="20"/>
-      <c r="E1011" s="20"/>
-      <c r="F1011" s="20"/>
-      <c r="G1011" s="1"/>
-      <c r="H1011" s="1"/>
-      <c r="I1011" s="10"/>
-      <c r="J1011" s="1"/>
-      <c r="K1011" s="20"/>
-      <c r="L1011" s="10"/>
-      <c r="M1011" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B65:H65"/>
+  <mergeCells count="41">
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
     <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B51:H51"/>
     <mergeCell ref="B52:H52"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B54:H54"/>
@@ -49585,21 +49708,15 @@
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B48:H48"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B47:H47"/>
     <mergeCell ref="B45:H45"/>
     <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B28:L28"/>
     <mergeCell ref="B29:H29"/>
@@ -49614,7 +49731,7 @@
     <mergeCell ref="B38:H38"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J30:K1011">
+  <conditionalFormatting sqref="J30:K1008">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
@@ -49632,7 +49749,7 @@
   </sheetPr>
   <dimension ref="B2:O1052"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B44" sqref="B44:H44"/>
     </sheetView>
   </sheetViews>
@@ -49664,7 +49781,7 @@
       </c>
       <c r="F2" s="51">
         <f ca="1">TODAY()</f>
-        <v>45585</v>
+        <v>45608</v>
       </c>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
@@ -50285,30 +50402,30 @@
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="108"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="115"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1">
-      <c r="B29" s="109" t="s">
+      <c r="B29" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="111"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
       <c r="I29" s="40" t="s">
         <v>10</v>
       </c>
@@ -50324,20 +50441,20 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B30" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
+      <c r="B30" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
       <c r="I30" s="42" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="K30" s="44"/>
       <c r="L30" s="45"/>
@@ -50345,15 +50462,15 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B31" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="122"/>
+      <c r="B31" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="129"/>
       <c r="I31" s="42">
         <v>45040</v>
       </c>
@@ -50364,15 +50481,15 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B32" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
+      <c r="B32" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="129"/>
       <c r="I32" s="42">
         <v>45040</v>
       </c>
@@ -50383,15 +50500,15 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B33" s="120" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
+      <c r="B33" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="129"/>
       <c r="I33" s="42">
         <v>45041</v>
       </c>
@@ -50402,13 +50519,13 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B34" s="120"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="122"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="129"/>
       <c r="I34" s="42">
         <v>45042</v>
       </c>
@@ -50419,13 +50536,13 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B35" s="120"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="122"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="129"/>
       <c r="I35" s="42">
         <v>45042</v>
       </c>
@@ -50436,13 +50553,13 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B36" s="120"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="122"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="129"/>
       <c r="I36" s="42">
         <v>45042</v>
       </c>
@@ -50453,13 +50570,13 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B37" s="148"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="122"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="129"/>
       <c r="I37" s="42">
         <v>45042</v>
       </c>
@@ -50474,13 +50591,13 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B38" s="149"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="151"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="153"/>
       <c r="I38" s="42">
         <v>45042</v>
       </c>
@@ -50491,13 +50608,13 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B39" s="120"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="122"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="129"/>
       <c r="I39" s="42">
         <v>45042</v>
       </c>
@@ -50508,13 +50625,13 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B40" s="120"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="122"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="129"/>
       <c r="I40" s="42">
         <v>45042</v>
       </c>
@@ -50525,13 +50642,13 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B41" s="120"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="129"/>
       <c r="I41" s="42">
         <v>45051</v>
       </c>
@@ -50542,13 +50659,13 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B42" s="152"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
-      <c r="H42" s="136"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="156"/>
       <c r="I42" s="42">
         <v>45052</v>
       </c>
@@ -50559,13 +50676,13 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B43" s="152"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="136"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="156"/>
       <c r="I43" s="42">
         <v>45053</v>
       </c>
@@ -50576,20 +50693,20 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B44" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="135"/>
-      <c r="G44" s="135"/>
-      <c r="H44" s="136"/>
+      <c r="B44" s="154" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="156"/>
       <c r="I44" s="42">
         <v>45054</v>
       </c>
       <c r="J44" s="47" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="K44" s="44">
         <v>2</v>
@@ -50599,13 +50716,13 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B45" s="117"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="119"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="126"/>
       <c r="I45" s="42"/>
       <c r="J45" s="47"/>
       <c r="K45" s="44"/>
@@ -50614,13 +50731,13 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="119"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
       <c r="I46" s="46"/>
       <c r="J46" s="47"/>
       <c r="K46" s="44"/>
@@ -50629,13 +50746,13 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B47" s="99"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="101"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="108"/>
       <c r="I47" s="46"/>
       <c r="J47" s="47"/>
       <c r="K47" s="44"/>
@@ -50644,13 +50761,13 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B48" s="99"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="101"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="108"/>
       <c r="I48" s="46"/>
       <c r="J48" s="47"/>
       <c r="K48" s="44"/>
@@ -50659,13 +50776,13 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B49" s="96"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="98"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="105"/>
       <c r="I49" s="46"/>
       <c r="J49" s="47"/>
       <c r="K49" s="44"/>
@@ -50674,13 +50791,13 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B50" s="93"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="95"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="102"/>
       <c r="I50" s="37"/>
       <c r="J50" s="38"/>
       <c r="K50" s="35"/>
@@ -50689,13 +50806,13 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B51" s="93"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="95"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="102"/>
       <c r="I51" s="37"/>
       <c r="J51" s="38"/>
       <c r="K51" s="35"/>
@@ -50704,13 +50821,13 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B52" s="93"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="95"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="102"/>
       <c r="I52" s="37"/>
       <c r="J52" s="38"/>
       <c r="K52" s="35"/>
@@ -50719,13 +50836,13 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B53" s="93"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="95"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="102"/>
       <c r="I53" s="37"/>
       <c r="J53" s="38"/>
       <c r="K53" s="35"/>
@@ -50734,13 +50851,13 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B54" s="93"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="95"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="102"/>
       <c r="I54" s="37"/>
       <c r="J54" s="38"/>
       <c r="K54" s="35"/>
@@ -50749,13 +50866,13 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B55" s="93"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="95"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="102"/>
       <c r="I55" s="37"/>
       <c r="J55" s="38"/>
       <c r="K55" s="35"/>
@@ -50764,13 +50881,13 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B56" s="93"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="95"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="102"/>
       <c r="I56" s="37"/>
       <c r="J56" s="38"/>
       <c r="K56" s="35"/>
@@ -50779,13 +50896,13 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B57" s="93"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="95"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="102"/>
       <c r="I57" s="37"/>
       <c r="J57" s="38"/>
       <c r="K57" s="35"/>
@@ -50794,13 +50911,13 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B58" s="93"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="95"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="102"/>
       <c r="I58" s="37"/>
       <c r="J58" s="38"/>
       <c r="K58" s="35"/>
@@ -50809,13 +50926,13 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="95"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="102"/>
       <c r="I59" s="32"/>
       <c r="J59" s="34"/>
       <c r="K59" s="11"/>
@@ -50824,13 +50941,13 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B60" s="93"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="95"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="102"/>
       <c r="I60" s="32"/>
       <c r="J60" s="34"/>
       <c r="K60" s="11"/>
@@ -50839,13 +50956,13 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="95"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="102"/>
       <c r="I61" s="32"/>
       <c r="J61" s="34"/>
       <c r="K61" s="11"/>
@@ -50854,13 +50971,13 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B62" s="93"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="95"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="102"/>
       <c r="I62" s="32"/>
       <c r="J62" s="34"/>
       <c r="K62" s="11"/>
@@ -50869,13 +50986,13 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B63" s="93"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="95"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="102"/>
       <c r="I63" s="32"/>
       <c r="J63" s="34"/>
       <c r="K63" s="11"/>
@@ -50884,13 +51001,13 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B64" s="93"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="95"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="102"/>
       <c r="I64" s="32"/>
       <c r="J64" s="34"/>
       <c r="K64" s="11"/>
@@ -50899,13 +51016,13 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B65" s="93"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="95"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="102"/>
       <c r="I65" s="32"/>
       <c r="J65" s="34"/>
       <c r="K65" s="11"/>
@@ -50914,13 +51031,13 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B66" s="93"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="95"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="102"/>
       <c r="I66" s="32"/>
       <c r="J66" s="34"/>
       <c r="K66" s="11"/>
@@ -50929,13 +51046,13 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B67" s="93"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="95"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="102"/>
       <c r="I67" s="32"/>
       <c r="J67" s="34"/>
       <c r="K67" s="11"/>
@@ -50944,13 +51061,13 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B68" s="93"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="95"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="102"/>
       <c r="I68" s="32"/>
       <c r="J68" s="34"/>
       <c r="K68" s="11"/>
@@ -50959,13 +51076,13 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B69" s="93"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="95"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="102"/>
       <c r="I69" s="32"/>
       <c r="J69" s="23"/>
       <c r="K69" s="11"/>
@@ -50974,13 +51091,13 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B70" s="93"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="95"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="102"/>
       <c r="I70" s="32"/>
       <c r="J70" s="23"/>
       <c r="K70" s="11"/>
@@ -50989,13 +51106,13 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B71" s="93"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="95"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="102"/>
       <c r="I71" s="32"/>
       <c r="J71" s="23"/>
       <c r="K71" s="11"/>
@@ -51004,13 +51121,13 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B72" s="93"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="95"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="102"/>
       <c r="I72" s="32"/>
       <c r="J72" s="23"/>
       <c r="K72" s="11"/>
@@ -51034,13 +51151,13 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B74" s="153"/>
-      <c r="C74" s="154"/>
-      <c r="D74" s="154"/>
-      <c r="E74" s="154"/>
-      <c r="F74" s="154"/>
-      <c r="G74" s="154"/>
-      <c r="H74" s="155"/>
+      <c r="B74" s="157"/>
+      <c r="C74" s="158"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="158"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="158"/>
+      <c r="H74" s="159"/>
       <c r="I74" s="6"/>
       <c r="J74" s="21"/>
       <c r="K74" s="9"/>
@@ -51049,13 +51166,13 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B75" s="114"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="115"/>
-      <c r="F75" s="115"/>
-      <c r="G75" s="115"/>
-      <c r="H75" s="116"/>
+      <c r="B75" s="121"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="122"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="122"/>
+      <c r="H75" s="123"/>
       <c r="I75" s="25"/>
       <c r="J75" s="26"/>
       <c r="K75" s="27"/>
@@ -51064,17 +51181,17 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B76" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="118"/>
-      <c r="D76" s="118"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="119"/>
+      <c r="B76" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="125"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="126"/>
       <c r="I76" s="70" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J76" s="71"/>
       <c r="K76" s="71">
@@ -51084,15 +51201,15 @@
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B77" s="153" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="154"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="154"/>
-      <c r="G77" s="154"/>
-      <c r="H77" s="155"/>
+      <c r="B77" s="157" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="158"/>
+      <c r="D77" s="158"/>
+      <c r="E77" s="158"/>
+      <c r="F77" s="158"/>
+      <c r="G77" s="158"/>
+      <c r="H77" s="159"/>
       <c r="I77" s="6"/>
       <c r="J77" s="4"/>
       <c r="K77" s="9"/>
@@ -51100,15 +51217,15 @@
       <c r="M77" s="2"/>
     </row>
     <row r="78" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B78" s="159" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="160"/>
-      <c r="D78" s="160"/>
-      <c r="E78" s="160"/>
-      <c r="F78" s="160"/>
-      <c r="G78" s="160"/>
-      <c r="H78" s="161"/>
+      <c r="B78" s="163" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="164"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="165"/>
       <c r="I78" s="6"/>
       <c r="J78" s="4"/>
       <c r="K78" s="9"/>
@@ -51116,15 +51233,15 @@
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B79" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="163"/>
-      <c r="D79" s="163"/>
-      <c r="E79" s="163"/>
-      <c r="F79" s="163"/>
-      <c r="G79" s="163"/>
-      <c r="H79" s="163"/>
+      <c r="B79" s="166" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
+      <c r="E79" s="167"/>
+      <c r="F79" s="167"/>
+      <c r="G79" s="167"/>
+      <c r="H79" s="167"/>
       <c r="I79" s="7"/>
       <c r="J79" s="4"/>
       <c r="K79" s="9"/>
@@ -51132,13 +51249,13 @@
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="2:15" ht="15.75" customHeight="1">
-      <c r="B80" s="102"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="103"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
       <c r="I80" s="22"/>
       <c r="J80" s="4"/>
       <c r="K80" s="9"/>
@@ -51146,15 +51263,15 @@
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B81" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="105"/>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="105"/>
+      <c r="B81" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="112"/>
+      <c r="D81" s="112"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="112"/>
+      <c r="G81" s="112"/>
+      <c r="H81" s="112"/>
       <c r="I81" s="7"/>
       <c r="J81" s="4"/>
       <c r="K81" s="9"/>
@@ -51162,15 +51279,15 @@
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B82" s="156" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="157"/>
-      <c r="D82" s="157"/>
-      <c r="E82" s="157"/>
-      <c r="F82" s="157"/>
-      <c r="G82" s="157"/>
-      <c r="H82" s="158"/>
+      <c r="B82" s="160" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="161"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="161"/>
+      <c r="F82" s="161"/>
+      <c r="G82" s="161"/>
+      <c r="H82" s="162"/>
       <c r="I82" s="8"/>
       <c r="J82" s="4"/>
       <c r="K82" s="9"/>
@@ -51178,13 +51295,13 @@
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B83" s="153"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="155"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="158"/>
+      <c r="G83" s="158"/>
+      <c r="H83" s="159"/>
       <c r="I83" s="8"/>
       <c r="J83" s="4"/>
       <c r="K83" s="9"/>
@@ -51192,13 +51309,13 @@
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B84" s="153"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
-      <c r="F84" s="154"/>
-      <c r="G84" s="154"/>
-      <c r="H84" s="155"/>
+      <c r="B84" s="157"/>
+      <c r="C84" s="158"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="158"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="158"/>
+      <c r="H84" s="159"/>
       <c r="I84" s="8"/>
       <c r="J84" s="4"/>
       <c r="K84" s="9"/>
@@ -51206,13 +51323,13 @@
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B85" s="153"/>
-      <c r="C85" s="154"/>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="154"/>
-      <c r="H85" s="155"/>
+      <c r="B85" s="157"/>
+      <c r="C85" s="158"/>
+      <c r="D85" s="158"/>
+      <c r="E85" s="158"/>
+      <c r="F85" s="158"/>
+      <c r="G85" s="158"/>
+      <c r="H85" s="159"/>
       <c r="I85" s="8"/>
       <c r="J85" s="4"/>
       <c r="K85" s="9"/>
@@ -51220,13 +51337,13 @@
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B86" s="153"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="155"/>
+      <c r="B86" s="157"/>
+      <c r="C86" s="158"/>
+      <c r="D86" s="158"/>
+      <c r="E86" s="158"/>
+      <c r="F86" s="158"/>
+      <c r="G86" s="158"/>
+      <c r="H86" s="159"/>
       <c r="I86" s="8"/>
       <c r="J86" s="4"/>
       <c r="K86" s="9"/>
@@ -51234,13 +51351,13 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B87" s="153"/>
-      <c r="C87" s="154"/>
-      <c r="D87" s="154"/>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
-      <c r="H87" s="155"/>
+      <c r="B87" s="157"/>
+      <c r="C87" s="158"/>
+      <c r="D87" s="158"/>
+      <c r="E87" s="158"/>
+      <c r="F87" s="158"/>
+      <c r="G87" s="158"/>
+      <c r="H87" s="159"/>
       <c r="I87" s="8"/>
       <c r="J87" s="4"/>
       <c r="K87" s="9"/>
@@ -51248,13 +51365,13 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B88" s="153"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="154"/>
-      <c r="F88" s="154"/>
-      <c r="G88" s="154"/>
-      <c r="H88" s="155"/>
+      <c r="B88" s="157"/>
+      <c r="C88" s="158"/>
+      <c r="D88" s="158"/>
+      <c r="E88" s="158"/>
+      <c r="F88" s="158"/>
+      <c r="G88" s="158"/>
+      <c r="H88" s="159"/>
       <c r="I88" s="8"/>
       <c r="J88" s="4"/>
       <c r="K88" s="9"/>
@@ -51262,15 +51379,15 @@
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B89" s="153" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="154"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="154"/>
-      <c r="F89" s="154"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="155"/>
+      <c r="B89" s="157" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="158"/>
+      <c r="D89" s="158"/>
+      <c r="E89" s="158"/>
+      <c r="F89" s="158"/>
+      <c r="G89" s="158"/>
+      <c r="H89" s="159"/>
       <c r="I89" s="8"/>
       <c r="J89" s="4"/>
       <c r="K89" s="9"/>
@@ -51278,15 +51395,15 @@
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B90" s="153" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="154"/>
-      <c r="D90" s="154"/>
-      <c r="E90" s="154"/>
-      <c r="F90" s="154"/>
-      <c r="G90" s="154"/>
-      <c r="H90" s="155"/>
+      <c r="B90" s="157" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="158"/>
+      <c r="D90" s="158"/>
+      <c r="E90" s="158"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="158"/>
+      <c r="H90" s="159"/>
       <c r="I90" s="8"/>
       <c r="J90" s="4"/>
       <c r="K90" s="9"/>
@@ -51294,13 +51411,13 @@
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B91" s="153"/>
-      <c r="C91" s="154"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="154"/>
-      <c r="F91" s="154"/>
-      <c r="G91" s="154"/>
-      <c r="H91" s="155"/>
+      <c r="B91" s="157"/>
+      <c r="C91" s="158"/>
+      <c r="D91" s="158"/>
+      <c r="E91" s="158"/>
+      <c r="F91" s="158"/>
+      <c r="G91" s="158"/>
+      <c r="H91" s="159"/>
       <c r="I91" s="8"/>
       <c r="J91" s="4"/>
       <c r="K91" s="9"/>
@@ -51308,13 +51425,13 @@
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B92" s="153"/>
-      <c r="C92" s="154"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="154"/>
-      <c r="F92" s="154"/>
-      <c r="G92" s="154"/>
-      <c r="H92" s="155"/>
+      <c r="B92" s="157"/>
+      <c r="C92" s="158"/>
+      <c r="D92" s="158"/>
+      <c r="E92" s="158"/>
+      <c r="F92" s="158"/>
+      <c r="G92" s="158"/>
+      <c r="H92" s="159"/>
       <c r="I92" s="8"/>
       <c r="J92" s="4"/>
       <c r="K92" s="9"/>
@@ -51322,13 +51439,13 @@
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B93" s="153"/>
-      <c r="C93" s="154"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="154"/>
-      <c r="H93" s="155"/>
+      <c r="B93" s="157"/>
+      <c r="C93" s="158"/>
+      <c r="D93" s="158"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="158"/>
+      <c r="G93" s="158"/>
+      <c r="H93" s="159"/>
       <c r="I93" s="8"/>
       <c r="J93" s="4"/>
       <c r="K93" s="9"/>
@@ -51336,13 +51453,13 @@
       <c r="M93" s="2"/>
     </row>
     <row r="94" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B94" s="153"/>
-      <c r="C94" s="154"/>
-      <c r="D94" s="154"/>
-      <c r="E94" s="154"/>
-      <c r="F94" s="154"/>
-      <c r="G94" s="154"/>
-      <c r="H94" s="155"/>
+      <c r="B94" s="157"/>
+      <c r="C94" s="158"/>
+      <c r="D94" s="158"/>
+      <c r="E94" s="158"/>
+      <c r="F94" s="158"/>
+      <c r="G94" s="158"/>
+      <c r="H94" s="159"/>
       <c r="I94" s="8"/>
       <c r="J94" s="4"/>
       <c r="K94" s="9"/>
@@ -51350,13 +51467,13 @@
       <c r="M94" s="2"/>
     </row>
     <row r="95" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B95" s="153"/>
-      <c r="C95" s="154"/>
-      <c r="D95" s="154"/>
-      <c r="E95" s="154"/>
-      <c r="F95" s="154"/>
-      <c r="G95" s="154"/>
-      <c r="H95" s="155"/>
+      <c r="B95" s="157"/>
+      <c r="C95" s="158"/>
+      <c r="D95" s="158"/>
+      <c r="E95" s="158"/>
+      <c r="F95" s="158"/>
+      <c r="G95" s="158"/>
+      <c r="H95" s="159"/>
       <c r="I95" s="8"/>
       <c r="J95" s="4"/>
       <c r="K95" s="9"/>
@@ -51364,13 +51481,13 @@
       <c r="M95" s="2"/>
     </row>
     <row r="96" spans="2:13" ht="13.15">
-      <c r="B96" s="153"/>
-      <c r="C96" s="154"/>
-      <c r="D96" s="154"/>
-      <c r="E96" s="154"/>
-      <c r="F96" s="154"/>
-      <c r="G96" s="154"/>
-      <c r="H96" s="155"/>
+      <c r="B96" s="157"/>
+      <c r="C96" s="158"/>
+      <c r="D96" s="158"/>
+      <c r="E96" s="158"/>
+      <c r="F96" s="158"/>
+      <c r="G96" s="158"/>
+      <c r="H96" s="159"/>
       <c r="I96" s="8"/>
       <c r="J96" s="4"/>
       <c r="K96" s="9"/>
@@ -51378,13 +51495,13 @@
       <c r="M96" s="2"/>
     </row>
     <row r="97" spans="2:13" ht="13.15">
-      <c r="B97" s="153"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="154"/>
-      <c r="H97" s="155"/>
+      <c r="B97" s="157"/>
+      <c r="C97" s="158"/>
+      <c r="D97" s="158"/>
+      <c r="E97" s="158"/>
+      <c r="F97" s="158"/>
+      <c r="G97" s="158"/>
+      <c r="H97" s="159"/>
       <c r="I97" s="8"/>
       <c r="J97" s="4"/>
       <c r="K97" s="9"/>
@@ -51392,13 +51509,13 @@
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="2:13" ht="13.15">
-      <c r="B98" s="153"/>
-      <c r="C98" s="154"/>
-      <c r="D98" s="154"/>
-      <c r="E98" s="154"/>
-      <c r="F98" s="154"/>
-      <c r="G98" s="154"/>
-      <c r="H98" s="155"/>
+      <c r="B98" s="157"/>
+      <c r="C98" s="158"/>
+      <c r="D98" s="158"/>
+      <c r="E98" s="158"/>
+      <c r="F98" s="158"/>
+      <c r="G98" s="158"/>
+      <c r="H98" s="159"/>
       <c r="I98" s="8"/>
       <c r="J98" s="4"/>
       <c r="K98" s="9"/>
@@ -51406,13 +51523,13 @@
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="2:13" ht="13.15">
-      <c r="B99" s="153"/>
-      <c r="C99" s="154"/>
-      <c r="D99" s="154"/>
-      <c r="E99" s="154"/>
-      <c r="F99" s="154"/>
-      <c r="G99" s="154"/>
-      <c r="H99" s="155"/>
+      <c r="B99" s="157"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="158"/>
+      <c r="E99" s="158"/>
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="159"/>
       <c r="I99" s="8"/>
       <c r="J99" s="4"/>
       <c r="K99" s="9"/>
@@ -51420,13 +51537,13 @@
       <c r="M99" s="2"/>
     </row>
     <row r="100" spans="2:13" ht="13.15">
-      <c r="B100" s="153"/>
-      <c r="C100" s="154"/>
-      <c r="D100" s="154"/>
-      <c r="E100" s="154"/>
-      <c r="F100" s="154"/>
-      <c r="G100" s="154"/>
-      <c r="H100" s="155"/>
+      <c r="B100" s="157"/>
+      <c r="C100" s="158"/>
+      <c r="D100" s="158"/>
+      <c r="E100" s="158"/>
+      <c r="F100" s="158"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="159"/>
       <c r="I100" s="8"/>
       <c r="J100" s="4"/>
       <c r="K100" s="9"/>
@@ -51434,13 +51551,13 @@
       <c r="M100" s="2"/>
     </row>
     <row r="101" spans="2:13" ht="13.15">
-      <c r="B101" s="153"/>
-      <c r="C101" s="154"/>
-      <c r="D101" s="154"/>
-      <c r="E101" s="154"/>
-      <c r="F101" s="154"/>
-      <c r="G101" s="154"/>
-      <c r="H101" s="155"/>
+      <c r="B101" s="157"/>
+      <c r="C101" s="158"/>
+      <c r="D101" s="158"/>
+      <c r="E101" s="158"/>
+      <c r="F101" s="158"/>
+      <c r="G101" s="158"/>
+      <c r="H101" s="159"/>
       <c r="I101" s="8"/>
       <c r="J101" s="4"/>
       <c r="K101" s="9"/>
@@ -51448,13 +51565,13 @@
       <c r="M101" s="2"/>
     </row>
     <row r="102" spans="2:13" ht="13.15">
-      <c r="B102" s="153"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="154"/>
-      <c r="E102" s="154"/>
-      <c r="F102" s="154"/>
-      <c r="G102" s="154"/>
-      <c r="H102" s="155"/>
+      <c r="B102" s="157"/>
+      <c r="C102" s="158"/>
+      <c r="D102" s="158"/>
+      <c r="E102" s="158"/>
+      <c r="F102" s="158"/>
+      <c r="G102" s="158"/>
+      <c r="H102" s="159"/>
       <c r="I102" s="8"/>
       <c r="J102" s="4"/>
       <c r="K102" s="9"/>
@@ -51462,13 +51579,13 @@
       <c r="M102" s="2"/>
     </row>
     <row r="103" spans="2:13" ht="13.15">
-      <c r="B103" s="153"/>
-      <c r="C103" s="154"/>
-      <c r="D103" s="154"/>
-      <c r="E103" s="154"/>
-      <c r="F103" s="154"/>
-      <c r="G103" s="154"/>
-      <c r="H103" s="155"/>
+      <c r="B103" s="157"/>
+      <c r="C103" s="158"/>
+      <c r="D103" s="158"/>
+      <c r="E103" s="158"/>
+      <c r="F103" s="158"/>
+      <c r="G103" s="158"/>
+      <c r="H103" s="159"/>
       <c r="I103" s="8"/>
       <c r="J103" s="4"/>
       <c r="K103" s="9"/>
@@ -51476,13 +51593,13 @@
       <c r="M103" s="2"/>
     </row>
     <row r="104" spans="2:13" ht="13.15">
-      <c r="B104" s="153"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="155"/>
+      <c r="B104" s="157"/>
+      <c r="C104" s="158"/>
+      <c r="D104" s="158"/>
+      <c r="E104" s="158"/>
+      <c r="F104" s="158"/>
+      <c r="G104" s="158"/>
+      <c r="H104" s="159"/>
       <c r="I104" s="8"/>
       <c r="J104" s="4"/>
       <c r="K104" s="9"/>
@@ -51490,13 +51607,13 @@
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="2:13" ht="13.15">
-      <c r="B105" s="153"/>
-      <c r="C105" s="154"/>
-      <c r="D105" s="154"/>
-      <c r="E105" s="154"/>
-      <c r="F105" s="154"/>
-      <c r="G105" s="154"/>
-      <c r="H105" s="155"/>
+      <c r="B105" s="157"/>
+      <c r="C105" s="158"/>
+      <c r="D105" s="158"/>
+      <c r="E105" s="158"/>
+      <c r="F105" s="158"/>
+      <c r="G105" s="158"/>
+      <c r="H105" s="159"/>
       <c r="I105" s="8"/>
       <c r="J105" s="4"/>
       <c r="K105" s="9"/>
@@ -51504,13 +51621,13 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="13.15">
-      <c r="B106" s="153"/>
-      <c r="C106" s="154"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="154"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="155"/>
+      <c r="B106" s="157"/>
+      <c r="C106" s="158"/>
+      <c r="D106" s="158"/>
+      <c r="E106" s="158"/>
+      <c r="F106" s="158"/>
+      <c r="G106" s="158"/>
+      <c r="H106" s="159"/>
       <c r="I106" s="8"/>
       <c r="J106" s="4"/>
       <c r="K106" s="9"/>
@@ -51518,13 +51635,13 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="13.15">
-      <c r="B107" s="153"/>
-      <c r="C107" s="154"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="154"/>
-      <c r="F107" s="154"/>
-      <c r="G107" s="154"/>
-      <c r="H107" s="155"/>
+      <c r="B107" s="157"/>
+      <c r="C107" s="158"/>
+      <c r="D107" s="158"/>
+      <c r="E107" s="158"/>
+      <c r="F107" s="158"/>
+      <c r="G107" s="158"/>
+      <c r="H107" s="159"/>
       <c r="I107" s="8"/>
       <c r="J107" s="4"/>
       <c r="K107" s="9"/>
@@ -51532,13 +51649,13 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="13.15">
-      <c r="B108" s="153"/>
-      <c r="C108" s="154"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="154"/>
-      <c r="F108" s="154"/>
-      <c r="G108" s="154"/>
-      <c r="H108" s="155"/>
+      <c r="B108" s="157"/>
+      <c r="C108" s="158"/>
+      <c r="D108" s="158"/>
+      <c r="E108" s="158"/>
+      <c r="F108" s="158"/>
+      <c r="G108" s="158"/>
+      <c r="H108" s="159"/>
       <c r="I108" s="8"/>
       <c r="J108" s="3"/>
       <c r="K108" s="9"/>
@@ -51546,13 +51663,13 @@
       <c r="M108" s="2"/>
     </row>
     <row r="109" spans="2:13" ht="13.15">
-      <c r="B109" s="153"/>
-      <c r="C109" s="154"/>
-      <c r="D109" s="154"/>
-      <c r="E109" s="154"/>
-      <c r="F109" s="154"/>
-      <c r="G109" s="154"/>
-      <c r="H109" s="155"/>
+      <c r="B109" s="157"/>
+      <c r="C109" s="158"/>
+      <c r="D109" s="158"/>
+      <c r="E109" s="158"/>
+      <c r="F109" s="158"/>
+      <c r="G109" s="158"/>
+      <c r="H109" s="159"/>
       <c r="I109" s="8"/>
       <c r="J109" s="3"/>
       <c r="K109" s="9"/>
@@ -51560,13 +51677,13 @@
       <c r="M109" s="2"/>
     </row>
     <row r="110" spans="2:13" ht="13.15">
-      <c r="B110" s="153"/>
-      <c r="C110" s="154"/>
-      <c r="D110" s="154"/>
-      <c r="E110" s="154"/>
-      <c r="F110" s="154"/>
-      <c r="G110" s="154"/>
-      <c r="H110" s="155"/>
+      <c r="B110" s="157"/>
+      <c r="C110" s="158"/>
+      <c r="D110" s="158"/>
+      <c r="E110" s="158"/>
+      <c r="F110" s="158"/>
+      <c r="G110" s="158"/>
+      <c r="H110" s="159"/>
       <c r="I110" s="8"/>
       <c r="J110" s="3"/>
       <c r="K110" s="9"/>
@@ -51574,13 +51691,13 @@
       <c r="M110" s="2"/>
     </row>
     <row r="111" spans="2:13" ht="13.15">
-      <c r="B111" s="153"/>
-      <c r="C111" s="154"/>
-      <c r="D111" s="154"/>
-      <c r="E111" s="154"/>
-      <c r="F111" s="154"/>
-      <c r="G111" s="154"/>
-      <c r="H111" s="155"/>
+      <c r="B111" s="157"/>
+      <c r="C111" s="158"/>
+      <c r="D111" s="158"/>
+      <c r="E111" s="158"/>
+      <c r="F111" s="158"/>
+      <c r="G111" s="158"/>
+      <c r="H111" s="159"/>
       <c r="I111" s="8"/>
       <c r="J111" s="3"/>
       <c r="K111" s="9"/>
@@ -51588,13 +51705,13 @@
       <c r="M111" s="2"/>
     </row>
     <row r="112" spans="2:13" ht="13.15">
-      <c r="B112" s="164"/>
-      <c r="C112" s="165"/>
-      <c r="D112" s="165"/>
-      <c r="E112" s="165"/>
-      <c r="F112" s="165"/>
-      <c r="G112" s="165"/>
-      <c r="H112" s="166"/>
+      <c r="B112" s="168"/>
+      <c r="C112" s="169"/>
+      <c r="D112" s="169"/>
+      <c r="E112" s="169"/>
+      <c r="F112" s="169"/>
+      <c r="G112" s="169"/>
+      <c r="H112" s="170"/>
       <c r="I112" s="12"/>
       <c r="J112" s="18"/>
       <c r="K112" s="13"/>
@@ -64876,12 +64993,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B2" s="29">
         <v>10</v>
@@ -64897,7 +65014,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B4" s="29">
         <v>5</v>
@@ -64905,7 +65022,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B5" s="29">
         <v>5</v>
@@ -64913,7 +65030,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B6" s="29">
         <v>5</v>
@@ -64921,7 +65038,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B7" s="29">
         <v>0</v>
@@ -64929,7 +65046,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B8" s="29">
         <v>5</v>
@@ -64947,6 +65064,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="292518d5-5be3-4e47-a7a5-bd650e8326a1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b27184c-fad0-44bf-8a16-f94ff7fe2173">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FF33F66F804B4D49AAA3ACD3A2BB6BED" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="efba02d09355317c277f90c307d9376a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b27184c-fad0-44bf-8a16-f94ff7fe2173" xmlns:ns3="292518d5-5be3-4e47-a7a5-bd650e8326a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8d299d27adff85c7a3cac0b14bef8e2" ns2:_="" ns3:_="">
     <xsd:import namespace="2b27184c-fad0-44bf-8a16-f94ff7fe2173"/>
@@ -65163,7 +65291,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -65172,25 +65300,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="292518d5-5be3-4e47-a7a5-bd650e8326a1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2b27184c-fad0-44bf-8a16-f94ff7fe2173">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9990DFF-9276-408F-8566-C68D39E8178C}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179A4B7C-0A2F-4035-9CB6-84016CC528ED}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EF2A43A-D629-4924-AE5E-389A5037F4F3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9990DFF-9276-408F-8566-C68D39E8178C}"/>
 </file>